--- a/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1FBC3D-50AB-466F-8EDB-FD1064147B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC6B4A-309D-4B0B-A7AF-D6D04101D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="193">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -603,12 +603,39 @@
   <si>
     <t>77, 105, 4, 55, 65, 75, 116, 117, 118, 119, 121</t>
   </si>
+  <si>
+    <t>Advance payment reconciliation reported in error</t>
+  </si>
+  <si>
+    <t>Advance Payment Reconciliation not to be reported with this category or sub-category.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance Payment reconciliation </t>
+  </si>
+  <si>
+    <t>No record found for Employer Registration Id provided.</t>
+  </si>
+  <si>
+    <t>No record found for Employer Registration Id provided due to RPN service error.</t>
+  </si>
+  <si>
+    <t>EmployerRegistrationId</t>
+  </si>
+  <si>
+    <t>173, 174</t>
+  </si>
+  <si>
+    <t>Added rules</t>
+  </si>
+  <si>
+    <t>Removed 173</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,8 +744,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,8 +810,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -891,13 +942,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,6 +1193,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,6 +1270,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21849,8 +21982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21865,18 +21998,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -21917,7 +22050,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="76">
+      <c r="B14" s="89">
         <v>0.12</v>
       </c>
       <c r="C14" s="71">
@@ -21926,49 +22059,49 @@
       <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="92">
         <v>45218</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="81"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="59">
@@ -21985,16 +22118,32 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="104">
+        <v>45371</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="63"/>
+      <c r="B21" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="71">
+        <v>173</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="70">
+        <v>45373</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
@@ -22295,10 +22444,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM340"/>
+  <dimension ref="A1:BM342"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -22367,43 +22516,43 @@
       <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="87"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="100"/>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23165,23 +23314,23 @@
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="86"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24363,149 +24512,148 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="75">
         <v>172</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="78">
         <v>200</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="79">
         <v>2611</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="N45" s="22" t="s">
+      <c r="N45" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="O45" s="22" t="s">
+      <c r="O45" s="81" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="s">
+    <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="82">
+        <v>174</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="85">
+        <v>200</v>
+      </c>
+      <c r="H46" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="86">
+        <v>2614</v>
+      </c>
+      <c r="M46" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="N46" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="13"/>
-    </row>
-    <row r="48" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44">
         <v>148</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="44">
-        <v>403</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" s="44">
-        <v>1111</v>
-      </c>
-      <c r="M48" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N48" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O48" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P48" s="13"/>
-    </row>
-    <row r="49" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
-        <v>146</v>
       </c>
       <c r="B49" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>36</v>
@@ -24532,76 +24680,76 @@
         <v>41</v>
       </c>
       <c r="L49" s="44">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M49" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="45" t="s">
-        <v>36</v>
+        <v>146</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>52</v>
+    <row r="50" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44">
+        <v>146</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="16">
-        <v>401</v>
-      </c>
-      <c r="H50" s="35" t="s">
+      <c r="G50" s="44">
+        <v>403</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L50" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N50" s="23" t="s">
+      <c r="L50" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M50" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O50" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>45</v>
+      <c r="C51" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>36</v>
@@ -24628,28 +24776,28 @@
         <v>41</v>
       </c>
       <c r="L51" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="29" t="s">
+      <c r="O51" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>36</v>
@@ -24661,7 +24809,7 @@
         <v>37</v>
       </c>
       <c r="G52" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>38</v>
@@ -24669,34 +24817,35 @@
       <c r="I52" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L52" s="16">
-        <v>1003</v>
-      </c>
-      <c r="M52" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="N52" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O52" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>36</v>
@@ -24708,7 +24857,7 @@
         <v>37</v>
       </c>
       <c r="G53" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>38</v>
@@ -24720,13 +24869,13 @@
         <v>40</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L53" s="17">
-        <v>1004</v>
+        <v>47</v>
+      </c>
+      <c r="L53" s="16">
+        <v>1003</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>147</v>
@@ -24735,15 +24884,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>53</v>
+      <c r="C54" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>36</v>
@@ -24755,7 +24904,7 @@
         <v>37</v>
       </c>
       <c r="G54" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>38</v>
@@ -24763,94 +24912,45 @@
       <c r="I54" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M54" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>42</v>
+      <c r="K54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="17">
+        <v>1004</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="O54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AO54" s="14"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="14"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="14"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-      <c r="BB54" s="14"/>
-      <c r="BC54" s="14"/>
-      <c r="BD54" s="14"/>
-      <c r="BE54" s="14"/>
-      <c r="BF54" s="14"/>
-      <c r="BG54" s="14"/>
-      <c r="BH54" s="14"/>
-      <c r="BI54" s="14"/>
-      <c r="BJ54" s="14"/>
-      <c r="BK54" s="14"/>
-      <c r="BL54" s="14"/>
-      <c r="BM54" s="14"/>
-    </row>
-    <row r="55" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B55" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="54" t="s">
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="16">
         <v>403</v>
       </c>
       <c r="H55" s="35" t="s">
@@ -24859,45 +24959,94 @@
       <c r="I55" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="54" t="s">
+      <c r="J55" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L55" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1005</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N55" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="14"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="14"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="14"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="14"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="14"/>
+      <c r="BM55" s="14"/>
+    </row>
+    <row r="56" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B56" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="4">
         <v>403</v>
       </c>
       <c r="H56" s="35" t="s">
@@ -24906,34 +25055,34 @@
       <c r="I56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="17">
-        <v>1006</v>
-      </c>
-      <c r="M56" s="23" t="s">
-        <v>57</v>
+      <c r="L56" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="N56" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="O56" s="55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>36</v>
@@ -24957,13 +25106,13 @@
         <v>40</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L57" s="17">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N57" s="22" t="s">
         <v>147</v>
@@ -24972,15 +25121,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>36</v>
@@ -25007,10 +25156,10 @@
         <v>47</v>
       </c>
       <c r="L58" s="17">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>147</v>
@@ -25021,15 +25170,15 @@
     </row>
     <row r="59" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -25051,32 +25200,32 @@
         <v>40</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L59" s="16">
-        <v>1011</v>
+        <v>47</v>
+      </c>
+      <c r="L59" s="17">
+        <v>1008</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -25086,7 +25235,7 @@
         <v>37</v>
       </c>
       <c r="G60" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>38</v>
@@ -25094,122 +25243,121 @@
       <c r="I60" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="16">
+        <v>404</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="4">
         <v>2501</v>
       </c>
-      <c r="M60" s="22" t="s">
+      <c r="M61" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="N60" s="22" t="s">
+      <c r="N61" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="O60" s="22" t="s">
+      <c r="O61" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82" t="s">
+    <row r="62" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="13"/>
-    </row>
-    <row r="62" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84" t="s">
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="86"/>
-      <c r="P62" s="13"/>
-    </row>
-    <row r="63" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44">
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="98"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="98"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44">
         <v>148</v>
-      </c>
-      <c r="B63" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="44">
-        <v>403</v>
-      </c>
-      <c r="H63" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L63" s="44">
-        <v>1111</v>
-      </c>
-      <c r="M63" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N63" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O63" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
-        <v>146</v>
       </c>
       <c r="B64" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D64" s="44" t="s">
         <v>36</v>
@@ -25236,76 +25384,76 @@
         <v>41</v>
       </c>
       <c r="L64" s="44">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M64" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N64" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O64" s="45" t="s">
-        <v>36</v>
+        <v>146</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="P64" s="13"/>
     </row>
-    <row r="65" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>62</v>
+    <row r="65" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44">
+        <v>146</v>
       </c>
       <c r="B65" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="16">
-        <v>401</v>
-      </c>
-      <c r="H65" s="35" t="s">
+      <c r="G65" s="44">
+        <v>403</v>
+      </c>
+      <c r="H65" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L65" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N65" s="23" t="s">
+      <c r="L65" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M65" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O65" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="P65" s="13"/>
     </row>
-    <row r="66" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>36</v>
@@ -25332,28 +25480,28 @@
         <v>41</v>
       </c>
       <c r="L66" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N66" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O66" s="29" t="s">
+      <c r="O66" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>36</v>
@@ -25365,7 +25513,7 @@
         <v>37</v>
       </c>
       <c r="G67" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H67" s="35" t="s">
         <v>38</v>
@@ -25373,34 +25521,35 @@
       <c r="I67" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K67" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L67" s="17">
-        <v>1003</v>
-      </c>
-      <c r="M67" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N67" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>36</v>
@@ -25412,7 +25561,7 @@
         <v>37</v>
       </c>
       <c r="G68" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>38</v>
@@ -25420,34 +25569,34 @@
       <c r="I68" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L68" s="17">
-        <v>1004</v>
-      </c>
-      <c r="M68" s="22" t="s">
-        <v>52</v>
+        <v>1003</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="O68" s="22" t="s">
+      <c r="O68" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B69" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>53</v>
+      <c r="C69" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>36</v>
@@ -25459,7 +25608,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H69" s="35" t="s">
         <v>38</v>
@@ -25467,94 +25616,45 @@
       <c r="I69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" s="5">
-        <v>1005</v>
+      <c r="K69" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" s="17">
+        <v>1004</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N69" s="23" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="O69" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="14"/>
-      <c r="AM69" s="14"/>
-      <c r="AN69" s="14"/>
-      <c r="AO69" s="14"/>
-      <c r="AP69" s="14"/>
-      <c r="AQ69" s="14"/>
-      <c r="AR69" s="14"/>
-      <c r="AS69" s="14"/>
-      <c r="AT69" s="14"/>
-      <c r="AU69" s="14"/>
-      <c r="AV69" s="14"/>
-      <c r="AW69" s="14"/>
-      <c r="AX69" s="14"/>
-      <c r="AY69" s="14"/>
-      <c r="AZ69" s="14"/>
-      <c r="BA69" s="14"/>
-      <c r="BB69" s="14"/>
-      <c r="BC69" s="14"/>
-      <c r="BD69" s="14"/>
-      <c r="BE69" s="14"/>
-      <c r="BF69" s="14"/>
-      <c r="BG69" s="14"/>
-      <c r="BH69" s="14"/>
-      <c r="BI69" s="14"/>
-      <c r="BJ69" s="14"/>
-      <c r="BK69" s="14"/>
-      <c r="BL69" s="14"/>
-      <c r="BM69" s="14"/>
-    </row>
-    <row r="70" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B70" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="54" t="s">
+      <c r="C70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="54" t="s">
+      <c r="E70" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="54" t="s">
+      <c r="F70" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="16">
         <v>403</v>
       </c>
       <c r="H70" s="35" t="s">
@@ -25563,45 +25663,94 @@
       <c r="I70" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="54" t="s">
+      <c r="J70" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1005</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N70" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="O70" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+      <c r="AK70" s="14"/>
+      <c r="AL70" s="14"/>
+      <c r="AM70" s="14"/>
+      <c r="AN70" s="14"/>
+      <c r="AO70" s="14"/>
+      <c r="AP70" s="14"/>
+      <c r="AQ70" s="14"/>
+      <c r="AR70" s="14"/>
+      <c r="AS70" s="14"/>
+      <c r="AT70" s="14"/>
+      <c r="AU70" s="14"/>
+      <c r="AV70" s="14"/>
+      <c r="AW70" s="14"/>
+      <c r="AX70" s="14"/>
+      <c r="AY70" s="14"/>
+      <c r="AZ70" s="14"/>
+      <c r="BA70" s="14"/>
+      <c r="BB70" s="14"/>
+      <c r="BC70" s="14"/>
+      <c r="BD70" s="14"/>
+      <c r="BE70" s="14"/>
+      <c r="BF70" s="14"/>
+      <c r="BG70" s="14"/>
+      <c r="BH70" s="14"/>
+      <c r="BI70" s="14"/>
+      <c r="BJ70" s="14"/>
+      <c r="BK70" s="14"/>
+      <c r="BL70" s="14"/>
+      <c r="BM70" s="14"/>
+    </row>
+    <row r="71" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B71" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="4">
         <v>403</v>
       </c>
       <c r="H71" s="35" t="s">
@@ -25610,34 +25759,34 @@
       <c r="I71" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="17">
-        <v>1006</v>
+      <c r="L71" s="54">
+        <v>1015</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O71" s="22" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="O71" s="55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>36</v>
@@ -25661,13 +25810,13 @@
         <v>40</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L72" s="17">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>147</v>
@@ -25678,13 +25827,13 @@
     </row>
     <row r="73" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>36</v>
@@ -25711,10 +25860,10 @@
         <v>47</v>
       </c>
       <c r="L73" s="17">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>147</v>
@@ -25725,15 +25874,15 @@
     </row>
     <row r="74" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -25755,32 +25904,32 @@
         <v>40</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L74" s="16">
-        <v>1011</v>
-      </c>
-      <c r="M74" s="23" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="L74" s="17">
+        <v>1008</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -25790,7 +25939,7 @@
         <v>37</v>
       </c>
       <c r="G75" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H75" s="35" t="s">
         <v>38</v>
@@ -25798,112 +25947,90 @@
       <c r="I75" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L75" s="5">
-        <v>2506</v>
-      </c>
-      <c r="M75" s="22" t="s">
-        <v>158</v>
+      <c r="K75" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L75" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O75" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="16">
+        <v>404</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="5">
+        <v>2506</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O76" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="82" t="s">
+    <row r="77" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="13"/>
-      <c r="AC76" s="13"/>
-      <c r="AD76" s="13"/>
-      <c r="AE76" s="13"/>
-      <c r="AF76" s="13"/>
-      <c r="AG76" s="13"/>
-      <c r="AH76" s="13"/>
-      <c r="AI76" s="13"/>
-      <c r="AJ76" s="13"/>
-      <c r="AK76" s="13"/>
-      <c r="AL76" s="13"/>
-      <c r="AM76" s="13"/>
-      <c r="AN76" s="13"/>
-      <c r="AO76" s="13"/>
-      <c r="AP76" s="13"/>
-      <c r="AQ76" s="13"/>
-      <c r="AR76" s="13"/>
-      <c r="AS76" s="13"/>
-      <c r="AT76" s="13"/>
-      <c r="AU76" s="13"/>
-      <c r="AV76" s="13"/>
-      <c r="AW76" s="13"/>
-      <c r="AX76" s="13"/>
-      <c r="AY76" s="13"/>
-      <c r="AZ76" s="13"/>
-      <c r="BA76" s="13"/>
-      <c r="BB76" s="13"/>
-      <c r="BC76" s="13"/>
-      <c r="BD76" s="13"/>
-      <c r="BE76" s="13"/>
-      <c r="BF76" s="13"/>
-      <c r="BG76" s="13"/>
-      <c r="BH76" s="13"/>
-      <c r="BI76" s="13"/>
-      <c r="BJ76" s="13"/>
-      <c r="BK76" s="13"/>
-      <c r="BL76" s="13"/>
-      <c r="BM76" s="13"/>
-    </row>
-    <row r="77" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
-      <c r="M77" s="85"/>
-      <c r="N77" s="85"/>
-      <c r="O77" s="85"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
@@ -25955,52 +26082,24 @@
       <c r="BL77" s="13"/>
       <c r="BM77" s="13"/>
     </row>
-    <row r="78" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44">
-        <v>146</v>
-      </c>
-      <c r="B78" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="44">
-        <v>403</v>
-      </c>
-      <c r="H78" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L78" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M78" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N78" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O78" s="45" t="s">
-        <v>36</v>
-      </c>
+    <row r="78" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="98"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="98"/>
+      <c r="K78" s="98"/>
+      <c r="L78" s="98"/>
+      <c r="M78" s="98"/>
+      <c r="N78" s="98"/>
+      <c r="O78" s="98"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
@@ -26052,50 +26151,50 @@
       <c r="BL78" s="13"/>
       <c r="BM78" s="13"/>
     </row>
-    <row r="79" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>72</v>
+    <row r="79" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44">
+        <v>146</v>
       </c>
       <c r="B79" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="16">
-        <v>401</v>
-      </c>
-      <c r="H79" s="35" t="s">
+      <c r="G79" s="44">
+        <v>403</v>
+      </c>
+      <c r="H79" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L79" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M79" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N79" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O79" s="30" t="s">
+      <c r="L79" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M79" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" s="45" t="s">
         <v>36</v>
       </c>
       <c r="P79" s="13"/>
@@ -26149,15 +26248,15 @@
       <c r="BL79" s="13"/>
       <c r="BM79" s="13"/>
     </row>
-    <row r="80" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>36</v>
@@ -26184,15 +26283,15 @@
         <v>41</v>
       </c>
       <c r="L80" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M80" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N80" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O80" s="29" t="s">
+      <c r="O80" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P80" s="13"/>
@@ -26246,15 +26345,15 @@
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
     </row>
-    <row r="81" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B81" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>36</v>
@@ -26266,7 +26365,7 @@
         <v>37</v>
       </c>
       <c r="G81" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H81" s="35" t="s">
         <v>38</v>
@@ -26278,79 +26377,80 @@
         <v>40</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L81" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M81" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N81" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O81" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="14"/>
-      <c r="AI81" s="14"/>
-      <c r="AJ81" s="14"/>
-      <c r="AK81" s="14"/>
-      <c r="AL81" s="14"/>
-      <c r="AM81" s="14"/>
-      <c r="AN81" s="14"/>
-      <c r="AO81" s="14"/>
-      <c r="AP81" s="14"/>
-      <c r="AQ81" s="14"/>
-      <c r="AR81" s="14"/>
-      <c r="AS81" s="14"/>
-      <c r="AT81" s="14"/>
-      <c r="AU81" s="14"/>
-      <c r="AV81" s="14"/>
-      <c r="AW81" s="14"/>
-      <c r="AX81" s="14"/>
-      <c r="AY81" s="14"/>
-      <c r="AZ81" s="14"/>
-      <c r="BA81" s="14"/>
-      <c r="BB81" s="14"/>
-      <c r="BC81" s="14"/>
-      <c r="BD81" s="14"/>
-      <c r="BE81" s="14"/>
-      <c r="BF81" s="14"/>
-      <c r="BG81" s="14"/>
-      <c r="BH81" s="14"/>
-      <c r="BI81" s="14"/>
-      <c r="BJ81" s="14"/>
-      <c r="BK81" s="14"/>
-      <c r="BL81" s="14"/>
-      <c r="BM81" s="14"/>
-    </row>
-    <row r="82" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+      <c r="AA81" s="13"/>
+      <c r="AB81" s="13"/>
+      <c r="AC81" s="13"/>
+      <c r="AD81" s="13"/>
+      <c r="AE81" s="13"/>
+      <c r="AF81" s="13"/>
+      <c r="AG81" s="13"/>
+      <c r="AH81" s="13"/>
+      <c r="AI81" s="13"/>
+      <c r="AJ81" s="13"/>
+      <c r="AK81" s="13"/>
+      <c r="AL81" s="13"/>
+      <c r="AM81" s="13"/>
+      <c r="AN81" s="13"/>
+      <c r="AO81" s="13"/>
+      <c r="AP81" s="13"/>
+      <c r="AQ81" s="13"/>
+      <c r="AR81" s="13"/>
+      <c r="AS81" s="13"/>
+      <c r="AT81" s="13"/>
+      <c r="AU81" s="13"/>
+      <c r="AV81" s="13"/>
+      <c r="AW81" s="13"/>
+      <c r="AX81" s="13"/>
+      <c r="AY81" s="13"/>
+      <c r="AZ81" s="13"/>
+      <c r="BA81" s="13"/>
+      <c r="BB81" s="13"/>
+      <c r="BC81" s="13"/>
+      <c r="BD81" s="13"/>
+      <c r="BE81" s="13"/>
+      <c r="BF81" s="13"/>
+      <c r="BG81" s="13"/>
+      <c r="BH81" s="13"/>
+      <c r="BI81" s="13"/>
+      <c r="BJ81" s="13"/>
+      <c r="BK81" s="13"/>
+      <c r="BL81" s="13"/>
+      <c r="BM81" s="13"/>
+    </row>
+    <row r="82" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>50</v>
+      <c r="C82" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>36</v>
@@ -26362,7 +26462,7 @@
         <v>37</v>
       </c>
       <c r="G82" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H82" s="35" t="s">
         <v>38</v>
@@ -26374,13 +26474,13 @@
         <v>40</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L82" s="5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>162</v>
@@ -26438,15 +26538,15 @@
       <c r="BL82" s="14"/>
       <c r="BM82" s="14"/>
     </row>
-    <row r="83" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>36</v>
@@ -26458,7 +26558,7 @@
         <v>37</v>
       </c>
       <c r="G83" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H83" s="35" t="s">
         <v>38</v>
@@ -26470,13 +26570,13 @@
         <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L83" s="5">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>162</v>
@@ -26534,26 +26634,26 @@
       <c r="BL83" s="14"/>
       <c r="BM83" s="14"/>
     </row>
-    <row r="84" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B84" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="54" t="s">
+      <c r="C84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="54" t="s">
+      <c r="F84" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="16">
         <v>403</v>
       </c>
       <c r="H84" s="35" t="s">
@@ -26562,23 +26662,23 @@
       <c r="I84" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J84" s="54" t="s">
+      <c r="J84" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L84" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L84" s="5">
+        <v>1005</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N84" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O84" s="55" t="s">
-        <v>36</v>
+        <v>162</v>
+      </c>
+      <c r="O84" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="Q84" s="14"/>
       <c r="R84" s="14"/>
@@ -26630,26 +26730,26 @@
       <c r="BL84" s="14"/>
       <c r="BM84" s="14"/>
     </row>
-    <row r="85" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B85" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="4">
         <v>403</v>
       </c>
       <c r="H85" s="35" t="s">
@@ -26658,23 +26758,23 @@
       <c r="I85" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L85" s="5">
-        <v>1006</v>
+      <c r="L85" s="54">
+        <v>1015</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N85" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O85" s="22" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="O85" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="Q85" s="14"/>
       <c r="R85" s="14"/>
@@ -26728,13 +26828,13 @@
     </row>
     <row r="86" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>36</v>
@@ -26758,13 +26858,13 @@
         <v>40</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L86" s="5">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>162</v>
@@ -26822,15 +26922,15 @@
       <c r="BL86" s="14"/>
       <c r="BM86" s="14"/>
     </row>
-    <row r="87" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>36</v>
@@ -26857,10 +26957,10 @@
         <v>47</v>
       </c>
       <c r="L87" s="5">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>162</v>
@@ -26920,13 +27020,13 @@
     </row>
     <row r="88" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>36</v>
@@ -26950,19 +27050,19 @@
         <v>40</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L88" s="5">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>162</v>
       </c>
       <c r="O88" s="22" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q88" s="14"/>
       <c r="R88" s="14"/>
@@ -27014,15 +27114,15 @@
       <c r="BL88" s="14"/>
       <c r="BM88" s="14"/>
     </row>
-    <row r="89" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
-        <v>169</v>
+    <row r="89" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>81</v>
       </c>
       <c r="B89" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="51" t="s">
-        <v>165</v>
+      <c r="C89" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>36</v>
@@ -27034,7 +27134,7 @@
         <v>37</v>
       </c>
       <c r="G89" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H89" s="35" t="s">
         <v>38</v>
@@ -27046,91 +27146,90 @@
         <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L89" s="18">
-        <v>3101</v>
-      </c>
-      <c r="M89" s="40" t="s">
-        <v>166</v>
+        <v>41</v>
+      </c>
+      <c r="L89" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M89" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>162</v>
       </c>
       <c r="O89" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="13"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-      <c r="Y89" s="13"/>
-      <c r="Z89" s="13"/>
-      <c r="AA89" s="13"/>
-      <c r="AB89" s="13"/>
-      <c r="AC89" s="13"/>
-      <c r="AD89" s="13"/>
-      <c r="AE89" s="13"/>
-      <c r="AF89" s="13"/>
-      <c r="AG89" s="13"/>
-      <c r="AH89" s="13"/>
-      <c r="AI89" s="13"/>
-      <c r="AJ89" s="13"/>
-      <c r="AK89" s="13"/>
-      <c r="AL89" s="13"/>
-      <c r="AM89" s="13"/>
-      <c r="AN89" s="13"/>
-      <c r="AO89" s="13"/>
-      <c r="AP89" s="13"/>
-      <c r="AQ89" s="13"/>
-      <c r="AR89" s="13"/>
-      <c r="AS89" s="13"/>
-      <c r="AT89" s="13"/>
-      <c r="AU89" s="13"/>
-      <c r="AV89" s="13"/>
-      <c r="AW89" s="13"/>
-      <c r="AX89" s="13"/>
-      <c r="AY89" s="13"/>
-      <c r="AZ89" s="13"/>
-      <c r="BA89" s="13"/>
-      <c r="BB89" s="13"/>
-      <c r="BC89" s="13"/>
-      <c r="BD89" s="13"/>
-      <c r="BE89" s="13"/>
-      <c r="BF89" s="13"/>
-      <c r="BG89" s="13"/>
-      <c r="BH89" s="13"/>
-      <c r="BI89" s="13"/>
-      <c r="BJ89" s="13"/>
-      <c r="BK89" s="13"/>
-      <c r="BL89" s="13"/>
-      <c r="BM89" s="13"/>
-    </row>
-    <row r="90" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
-        <v>156</v>
+        <v>36</v>
+      </c>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="14"/>
+      <c r="AF89" s="14"/>
+      <c r="AG89" s="14"/>
+      <c r="AH89" s="14"/>
+      <c r="AI89" s="14"/>
+      <c r="AJ89" s="14"/>
+      <c r="AK89" s="14"/>
+      <c r="AL89" s="14"/>
+      <c r="AM89" s="14"/>
+      <c r="AN89" s="14"/>
+      <c r="AO89" s="14"/>
+      <c r="AP89" s="14"/>
+      <c r="AQ89" s="14"/>
+      <c r="AR89" s="14"/>
+      <c r="AS89" s="14"/>
+      <c r="AT89" s="14"/>
+      <c r="AU89" s="14"/>
+      <c r="AV89" s="14"/>
+      <c r="AW89" s="14"/>
+      <c r="AX89" s="14"/>
+      <c r="AY89" s="14"/>
+      <c r="AZ89" s="14"/>
+      <c r="BA89" s="14"/>
+      <c r="BB89" s="14"/>
+      <c r="BC89" s="14"/>
+      <c r="BD89" s="14"/>
+      <c r="BE89" s="14"/>
+      <c r="BF89" s="14"/>
+      <c r="BG89" s="14"/>
+      <c r="BH89" s="14"/>
+      <c r="BI89" s="14"/>
+      <c r="BJ89" s="14"/>
+      <c r="BK89" s="14"/>
+      <c r="BL89" s="14"/>
+      <c r="BM89" s="14"/>
+    </row>
+    <row r="90" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <v>169</v>
       </c>
       <c r="B90" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" s="35" t="s">
+      <c r="C90" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="35" t="s">
+      <c r="F90" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G90" s="35">
+      <c r="G90" s="16">
         <v>400</v>
       </c>
       <c r="H90" s="35" t="s">
@@ -27139,23 +27238,23 @@
       <c r="I90" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J90" s="35" t="s">
+      <c r="J90" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K90" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L90" s="35">
-        <v>3014</v>
-      </c>
-      <c r="M90" s="47" t="s">
-        <v>169</v>
+      <c r="K90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L90" s="18">
+        <v>3101</v>
+      </c>
+      <c r="M90" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O90" s="58" t="s">
-        <v>170</v>
+      <c r="O90" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="P90" s="13"/>
       <c r="Q90" s="13"/>
@@ -27208,294 +27307,344 @@
       <c r="BL90" s="13"/>
       <c r="BM90" s="13"/>
     </row>
-    <row r="91" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>168</v>
+    <row r="91" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="35">
+        <v>156</v>
       </c>
       <c r="B91" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="4">
-        <v>9</v>
-      </c>
-      <c r="E91" s="16" t="s">
+      <c r="C91" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G91" s="16">
-        <v>200</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>80</v>
+      <c r="G91" s="35">
+        <v>400</v>
+      </c>
+      <c r="H91" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L91" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M91" s="22" t="s">
-        <v>99</v>
+      <c r="L91" s="35">
+        <v>3014</v>
+      </c>
+      <c r="M91" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O91" s="22" t="s">
+      <c r="O91" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="13"/>
+      <c r="AI91" s="13"/>
+      <c r="AJ91" s="13"/>
+      <c r="AK91" s="13"/>
+      <c r="AL91" s="13"/>
+      <c r="AM91" s="13"/>
+      <c r="AN91" s="13"/>
+      <c r="AO91" s="13"/>
+      <c r="AP91" s="13"/>
+      <c r="AQ91" s="13"/>
+      <c r="AR91" s="13"/>
+      <c r="AS91" s="13"/>
+      <c r="AT91" s="13"/>
+      <c r="AU91" s="13"/>
+      <c r="AV91" s="13"/>
+      <c r="AW91" s="13"/>
+      <c r="AX91" s="13"/>
+      <c r="AY91" s="13"/>
+      <c r="AZ91" s="13"/>
+      <c r="BA91" s="13"/>
+      <c r="BB91" s="13"/>
+      <c r="BC91" s="13"/>
+      <c r="BD91" s="13"/>
+      <c r="BE91" s="13"/>
+      <c r="BF91" s="13"/>
+      <c r="BG91" s="13"/>
+      <c r="BH91" s="13"/>
+      <c r="BI91" s="13"/>
+      <c r="BJ91" s="13"/>
+      <c r="BK91" s="13"/>
+      <c r="BL91" s="13"/>
+      <c r="BM91" s="13"/>
+    </row>
+    <row r="92" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>168</v>
+      </c>
+      <c r="B92" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="4">
+        <v>9</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="16">
+        <v>200</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O92" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="82" t="s">
+    <row r="93" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>175</v>
+      </c>
+      <c r="B93" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="16">
+        <v>200</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L93" s="4">
+        <v>3015</v>
+      </c>
+      <c r="M93" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O93" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-      <c r="N92" s="83"/>
-      <c r="O92" s="83"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="13"/>
-      <c r="AC92" s="13"/>
-      <c r="AD92" s="13"/>
-      <c r="AE92" s="13"/>
-      <c r="AF92" s="13"/>
-      <c r="AG92" s="13"/>
-      <c r="AH92" s="13"/>
-      <c r="AI92" s="13"/>
-      <c r="AJ92" s="13"/>
-      <c r="AK92" s="13"/>
-      <c r="AL92" s="13"/>
-      <c r="AM92" s="13"/>
-      <c r="AN92" s="13"/>
-      <c r="AO92" s="13"/>
-      <c r="AP92" s="13"/>
-      <c r="AQ92" s="13"/>
-      <c r="AR92" s="13"/>
-      <c r="AS92" s="13"/>
-      <c r="AT92" s="13"/>
-      <c r="AU92" s="13"/>
-      <c r="AV92" s="13"/>
-      <c r="AW92" s="13"/>
-      <c r="AX92" s="13"/>
-      <c r="AY92" s="13"/>
-      <c r="AZ92" s="13"/>
-      <c r="BA92" s="13"/>
-      <c r="BB92" s="13"/>
-      <c r="BC92" s="13"/>
-      <c r="BD92" s="13"/>
-      <c r="BE92" s="13"/>
-      <c r="BF92" s="13"/>
-      <c r="BG92" s="13"/>
-      <c r="BH92" s="13"/>
-      <c r="BI92" s="13"/>
-      <c r="BJ92" s="13"/>
-      <c r="BK92" s="13"/>
-      <c r="BL92" s="13"/>
-      <c r="BM92" s="13"/>
-    </row>
-    <row r="93" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84" t="s">
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="96"/>
+      <c r="O94" s="96"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
+      <c r="AA94" s="13"/>
+      <c r="AB94" s="13"/>
+      <c r="AC94" s="13"/>
+      <c r="AD94" s="13"/>
+      <c r="AE94" s="13"/>
+      <c r="AF94" s="13"/>
+      <c r="AG94" s="13"/>
+      <c r="AH94" s="13"/>
+      <c r="AI94" s="13"/>
+      <c r="AJ94" s="13"/>
+      <c r="AK94" s="13"/>
+      <c r="AL94" s="13"/>
+      <c r="AM94" s="13"/>
+      <c r="AN94" s="13"/>
+      <c r="AO94" s="13"/>
+      <c r="AP94" s="13"/>
+      <c r="AQ94" s="13"/>
+      <c r="AR94" s="13"/>
+      <c r="AS94" s="13"/>
+      <c r="AT94" s="13"/>
+      <c r="AU94" s="13"/>
+      <c r="AV94" s="13"/>
+      <c r="AW94" s="13"/>
+      <c r="AX94" s="13"/>
+      <c r="AY94" s="13"/>
+      <c r="AZ94" s="13"/>
+      <c r="BA94" s="13"/>
+      <c r="BB94" s="13"/>
+      <c r="BC94" s="13"/>
+      <c r="BD94" s="13"/>
+      <c r="BE94" s="13"/>
+      <c r="BF94" s="13"/>
+      <c r="BG94" s="13"/>
+      <c r="BH94" s="13"/>
+      <c r="BI94" s="13"/>
+      <c r="BJ94" s="13"/>
+      <c r="BK94" s="13"/>
+      <c r="BL94" s="13"/>
+      <c r="BM94" s="13"/>
+    </row>
+    <row r="95" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-    </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A94" s="44">
+      <c r="B95" s="98"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="98"/>
+      <c r="H95" s="98"/>
+      <c r="I95" s="98"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="98"/>
+      <c r="L95" s="98"/>
+      <c r="M95" s="98"/>
+      <c r="N95" s="98"/>
+      <c r="O95" s="98"/>
+    </row>
+    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A96" s="44">
         <v>146</v>
-      </c>
-      <c r="B94" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94" s="44">
-        <v>403</v>
-      </c>
-      <c r="H94" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I94" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J94" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K94" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L94" s="4">
-        <v>1016</v>
-      </c>
-      <c r="M94" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N94" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O94" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:65" ht="63" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>102</v>
-      </c>
-      <c r="B95" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" s="16">
-        <v>401</v>
-      </c>
-      <c r="H95" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L95" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M95" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N95" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O95" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:65" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>103</v>
       </c>
       <c r="B96" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="16">
-        <v>401</v>
-      </c>
-      <c r="H96" s="35" t="s">
+      <c r="G96" s="44">
+        <v>403</v>
+      </c>
+      <c r="H96" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="44" t="s">
         <v>41</v>
       </c>
       <c r="L96" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N96" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M96" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N96" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O96" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O96" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B97" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" s="4">
-        <v>301</v>
+        <v>43</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>37</v>
@@ -27504,7 +27653,7 @@
         <v>37</v>
       </c>
       <c r="G97" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H97" s="35" t="s">
         <v>38</v>
@@ -27516,33 +27665,33 @@
         <v>40</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L97" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M97" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N97" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O97" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L97" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O97" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B98" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D98" s="4">
-        <v>301</v>
+      <c r="C98" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>37</v>
@@ -27551,7 +27700,7 @@
         <v>37</v>
       </c>
       <c r="G98" s="16">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H98" s="35" t="s">
         <v>38</v>
@@ -27563,33 +27712,33 @@
         <v>40</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L98" s="5">
-        <v>1004</v>
-      </c>
-      <c r="M98" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="N98" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O98" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="L98" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M98" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N98" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O98" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B99" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>36</v>
+      <c r="C99" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="4">
+        <v>301</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>37</v>
@@ -27610,42 +27759,42 @@
         <v>40</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L99" s="5">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O99" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D100" s="54">
-        <v>302</v>
-      </c>
-      <c r="E100" s="54" t="s">
+      <c r="C100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="4">
+        <v>301</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F100" s="54" t="s">
+      <c r="F100" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="4">
-        <v>403</v>
+      <c r="G100" s="16">
+        <v>400</v>
       </c>
       <c r="H100" s="35" t="s">
         <v>38</v>
@@ -27653,37 +27802,37 @@
       <c r="I100" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J100" s="54" t="s">
+      <c r="J100" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L100" s="54">
-        <v>1006</v>
+      <c r="L100" s="5">
+        <v>1004</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O100" s="55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B101" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="4">
-        <v>302</v>
+        <v>55</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>37</v>
@@ -27704,41 +27853,41 @@
         <v>40</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L101" s="5">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O101" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B102" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="4">
+      <c r="C102" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="54">
         <v>302</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="4">
         <v>403</v>
       </c>
       <c r="H102" s="35" t="s">
@@ -27747,34 +27896,34 @@
       <c r="I102" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L102" s="5">
-        <v>1008</v>
+        <v>51</v>
+      </c>
+      <c r="L102" s="54">
+        <v>1006</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O102" s="22" t="s">
+      <c r="O102" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B103" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="D103" s="4">
         <v>302</v>
@@ -27801,10 +27950,10 @@
         <v>47</v>
       </c>
       <c r="L103" s="5">
-        <v>5001</v>
+        <v>1007</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>42</v>
@@ -27813,15 +27962,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="D104" s="4">
         <v>302</v>
@@ -27845,127 +27994,127 @@
         <v>40</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L104" s="5">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O104" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B105" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D105" s="16">
-        <v>305</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C105" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" s="4">
+        <v>302</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G105" s="26">
-        <v>400</v>
-      </c>
-      <c r="H105" s="4" t="s">
+      <c r="G105" s="16">
+        <v>403</v>
+      </c>
+      <c r="H105" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I105" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J105" s="16" t="s">
+      <c r="J105" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K105" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L105" s="17">
-        <v>1009</v>
-      </c>
-      <c r="M105" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N105" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O105" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105" s="5">
+        <v>5001</v>
+      </c>
+      <c r="M105" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N105" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O105" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C106" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" s="16">
-        <v>305</v>
-      </c>
-      <c r="E106" s="16" t="s">
+      <c r="C106" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" s="4">
+        <v>302</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="26">
-        <v>400</v>
-      </c>
-      <c r="H106" s="4" t="s">
+      <c r="G106" s="16">
+        <v>403</v>
+      </c>
+      <c r="H106" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I106" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K106" s="16" t="s">
-        <v>51</v>
+      <c r="K106" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L106" s="5">
-        <v>3002</v>
-      </c>
-      <c r="M106" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="N106" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O106" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+      <c r="M106" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N106" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O106" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B107" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="D107" s="16">
+        <v>305</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>37</v>
@@ -27988,52 +28137,112 @@
       <c r="K107" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L107" s="18">
-        <v>3003</v>
+      <c r="L107" s="17">
+        <v>1009</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="N107" s="23" t="s">
         <v>176</v>
       </c>
       <c r="O107" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>112</v>
+      </c>
+      <c r="B108" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="16">
+        <v>305</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G108" s="26">
+        <v>400</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L108" s="5">
+        <v>3002</v>
+      </c>
+      <c r="M108" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="N108" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O108" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>113</v>
+      </c>
+      <c r="B109" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" s="26">
+        <v>400</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L109" s="18">
+        <v>3003</v>
+      </c>
+      <c r="M109" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N109" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O109" s="23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="13"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
@@ -31948,6 +32157,7 @@
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="13"/>
+      <c r="C340" s="52"/>
       <c r="D340" s="12"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
@@ -31961,29 +32171,62 @@
       <c r="N340" s="13"/>
       <c r="O340" s="13"/>
     </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A341" s="12"/>
+      <c r="B341" s="13"/>
+      <c r="C341" s="52"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+      <c r="G341" s="27"/>
+      <c r="H341" s="27"/>
+      <c r="I341" s="27"/>
+      <c r="J341" s="12"/>
+      <c r="K341" s="12"/>
+      <c r="L341" s="12"/>
+      <c r="M341" s="13"/>
+      <c r="N341" s="13"/>
+      <c r="O341" s="13"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A342" s="12"/>
+      <c r="B342" s="13"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
+      <c r="F342" s="12"/>
+      <c r="G342" s="27"/>
+      <c r="H342" s="27"/>
+      <c r="I342" s="27"/>
+      <c r="J342" s="12"/>
+      <c r="K342" s="12"/>
+      <c r="L342" s="12"/>
+      <c r="M342" s="13"/>
+      <c r="N342" s="13"/>
+      <c r="O342" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A46:O46"/>
     <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A92:O92"/>
-    <mergeCell ref="A93:O93"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A94:O94"/>
+    <mergeCell ref="A95:O95"/>
     <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A78:O78"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L56:L60 L11:L15 L71:L75 L23:L24 L31:L32 L17:L18 L7:L9 L67:L69 L52:L54 L26:L29 L85:L88 L91 L81:L83 L97:L99 L101:L106" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L61 L11:L15 L72:L76 L23:L24 L31:L32 L17:L18 L7:L9 L68:L70 L53:L55 L26:L29 L86:L89 L103:L108 L82:L84 L99:L101 L92" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K56:K60 K71:K75 K67:K69 K7:K9 K52:K54 K11:K18 K85:K91 K81:K83 K101:K107 K97:K99 K23:K45" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K23:K45 K82:K84 K103:K109 K99:K101 K86:K93" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J56:J60 J71:J75 J67:J69 J7:J9 J52:J54 J11:J18 J85:J91 J81:J83 J101:J107 J97:J99 J23:J45" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J23:J45 J82:J84 J103:J109 J99:J101 J86:J93" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31993,67 +32236,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Word document" ma:contentTypeID="0x010100852E11B2A94E4937B655CB4FCD918453006DFD5C59A7CB45AAB5046F3899BB7DEC00F397826DF95DEB4B8DB89BEACF2240F1" ma:contentTypeVersion="79" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2efa76ee5d5cd602cc18ca32df57176e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9394a98c30c487d0596bd1768260a67a" ns2:_="">
     <xsd:import namespace="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
@@ -32273,25 +32455,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32307,4 +32532,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC6B4A-309D-4B0B-A7AF-D6D04101D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7931D-866E-47F2-B084-BFE7A5D45828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="204">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -411,18 +411,6 @@
     <t>Number of days exceeds -365 or Number of days exceeds -366 in a leap year</t>
   </si>
   <si>
-    <t>Small Benefit value can not exceed 1000 (value  may change in future)</t>
-  </si>
-  <si>
-    <t>Value of Benefit can not exceed €1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Benefit can not be entered more than twice for PPSN in one tax year </t>
-  </si>
-  <si>
-    <t>Exemption can not exceed 2 per employee per tax year</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -630,12 +618,57 @@
   <si>
     <t>Removed 173</t>
   </si>
+  <si>
+    <t>Small Benefit value can not exceed 1500 (value  may change in future)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Benefit can not be entered more than five times for PPSN in one tax year </t>
+  </si>
+  <si>
+    <t>Changed max amount from 1000 to 1500</t>
+  </si>
+  <si>
+    <t>Changed max small benefits amount from 2 to 5</t>
+  </si>
+  <si>
+    <t>Value of benefit exceeds allowable amount</t>
+  </si>
+  <si>
+    <t>Exemption exceeds maximum number  allowable per year</t>
+  </si>
+  <si>
+    <t>Appendix A</t>
+  </si>
+  <si>
+    <t>Small Benefit value can not exceed 1000 (value  may change in future)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Benefit can not be entered more than twice for PPSN in one tax year </t>
+  </si>
+  <si>
+    <t>See Appendix A below for allowable amounts for specific years</t>
+  </si>
+  <si>
+    <t>See Appendix A below for allowable number of submissions for specific years</t>
+  </si>
+  <si>
+    <t>Small Benefit Exemption rules applicable up to 31/12/2024</t>
+  </si>
+  <si>
+    <t>Small Benefit Exmption rules applicable from 01/01/2025 Onwards</t>
+  </si>
+  <si>
+    <t>176, 177, 178, 179, 180</t>
+  </si>
+  <si>
+    <t>Unauthorised request: Invalid ROS Digital Certificate provided.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +795,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,12 +1034,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,6 +1293,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,12 +1356,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -21643,7 +21732,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="542925" y="247650"/>
-          <a:ext cx="1569085" cy="675640"/>
+          <a:ext cx="1570446" cy="675640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21660,9 +21749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -21700,9 +21789,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21735,26 +21824,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21787,26 +21859,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21982,9 +22037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:E68"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21998,18 +22051,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -22050,7 +22103,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="89">
+      <c r="B14" s="94">
         <v>0.12</v>
       </c>
       <c r="C14" s="71">
@@ -22059,59 +22112,59 @@
       <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="97">
         <v>45218</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="98"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="93"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="93"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="94"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="59">
         <v>0.13</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E19" s="70">
         <v>45272</v>
@@ -22122,12 +22175,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="104">
+        <v>187</v>
+      </c>
+      <c r="E20" s="88">
         <v>45371</v>
       </c>
     </row>
@@ -22139,29 +22192,51 @@
         <v>173</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E21" s="70">
         <v>45373</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="C22" s="34">
+        <v>38</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="70">
+        <v>45582</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="63"/>
+      <c r="C23" s="34">
+        <v>39</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="70">
+        <v>45582</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="63"/>
+      <c r="B24" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="70">
+        <v>45635</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
@@ -22444,11 +22519,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM342"/>
+  <dimension ref="A1:BN350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22516,43 +22589,43 @@
       <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="105"/>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23218,7 +23291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -23265,7 +23338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>144</v>
       </c>
@@ -23313,83 +23386,132 @@
       </c>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+    <row r="19" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>176</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5">
+        <v>401</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+    </row>
+    <row r="20" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>152</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4">
-        <v>200</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="56">
-        <v>1017</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>153</v>
       </c>
       <c r="B21" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
@@ -23416,10 +23538,10 @@
         <v>51</v>
       </c>
       <c r="L21" s="56">
-        <v>1018</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>85</v>
+        <v>1017</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>77</v>
@@ -23429,17 +23551,17 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -23464,41 +23586,42 @@
         <v>51</v>
       </c>
       <c r="L22" s="56">
-        <v>2049</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>86</v>
+        <v>1018</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="4">
         <v>200</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="16" t="s">
@@ -23508,38 +23631,38 @@
         <v>40</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="4">
-        <v>2007</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="L23" s="56">
+        <v>2049</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O23" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>91</v>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="16">
@@ -23549,44 +23672,44 @@
         <v>80</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="5">
-        <v>4002</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>93</v>
+        <v>41</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2007</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>143</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>97</v>
       </c>
       <c r="B25" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="16">
@@ -23596,40 +23719,39 @@
         <v>80</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="16">
-        <v>2050</v>
+        <v>47</v>
+      </c>
+      <c r="L25" s="5">
+        <v>4002</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="24"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>20</v>
+      <c r="O25" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>143</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="4">
-        <v>9</v>
+      <c r="C26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>37</v>
@@ -23650,33 +23772,34 @@
         <v>40</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="L26" s="16">
+        <v>2050</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O26" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>37</v>
@@ -23687,7 +23810,7 @@
       <c r="G27" s="16">
         <v>200</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="16" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="16" t="s">
@@ -23697,33 +23820,33 @@
         <v>40</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="5">
-        <v>2009</v>
+        <v>51</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1010</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>37</v>
@@ -23746,31 +23869,31 @@
       <c r="K28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="4">
-        <v>2010</v>
+      <c r="L28" s="5">
+        <v>2009</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="49" t="s">
-        <v>107</v>
+      <c r="C29" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D29" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>37</v>
@@ -23781,7 +23904,7 @@
       <c r="G29" s="16">
         <v>200</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -23791,30 +23914,30 @@
         <v>40</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L29" s="4">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
-        <v>134</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>31</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>110</v>
+      <c r="C30" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="D30" s="4">
         <v>13</v>
@@ -23838,13 +23961,13 @@
         <v>40</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="18">
-        <v>2048</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2017</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>77</v>
@@ -23853,15 +23976,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>32</v>
+    <row r="31" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>134</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>111</v>
+      <c r="C31" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="D31" s="4">
         <v>13</v>
@@ -23885,13 +24008,13 @@
         <v>40</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="4">
-        <v>2018</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2048</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>77</v>
@@ -23900,18 +24023,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="16">
-        <v>16</v>
+      <c r="C32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="4">
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>37</v>
@@ -23928,37 +24051,37 @@
       <c r="I32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>41</v>
+      <c r="K32" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="L32" s="4">
-        <v>2019</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>114</v>
+        <v>2018</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O32" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>36</v>
+      <c r="C33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="16">
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>37</v>
@@ -23975,37 +24098,37 @@
       <c r="I33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="5">
-        <v>2045</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>116</v>
+      <c r="L33" s="4">
+        <v>2019</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O33" s="22" t="s">
-        <v>100</v>
+      <c r="O33" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="4">
-        <v>17</v>
+      <c r="C34" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>37</v>
@@ -24026,33 +24149,33 @@
         <v>117</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L34" s="5">
-        <v>2600</v>
+        <v>2045</v>
       </c>
       <c r="M34" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>37</v>
@@ -24070,33 +24193,33 @@
         <v>81</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L35" s="5">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="M35" s="43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="4">
         <v>20</v>
@@ -24117,16 +24240,16 @@
         <v>81</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L36" s="5">
-        <v>2602</v>
-      </c>
-      <c r="M36" s="50" t="s">
-        <v>125</v>
+        <v>2601</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>77</v>
@@ -24137,13 +24260,13 @@
     </row>
     <row r="37" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B37" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" s="4">
         <v>20</v>
@@ -24170,10 +24293,10 @@
         <v>51</v>
       </c>
       <c r="L37" s="5">
-        <v>2608</v>
+        <v>2602</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>77</v>
@@ -24184,16 +24307,16 @@
     </row>
     <row r="38" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B38" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>37</v>
@@ -24214,33 +24337,33 @@
         <v>117</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L38" s="5">
-        <v>2603</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>129</v>
+        <v>2608</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>127</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>36</v>
+      <c r="C39" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="4">
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>37</v>
@@ -24261,30 +24384,30 @@
         <v>117</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="5">
-        <v>2604</v>
-      </c>
-      <c r="M39" s="50" t="s">
-        <v>131</v>
+        <v>47</v>
+      </c>
+      <c r="L39" s="90">
+        <v>2603</v>
+      </c>
+      <c r="M39" s="91" t="s">
+        <v>193</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>133</v>
+      <c r="C40" s="89" t="s">
+        <v>199</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>36</v>
@@ -24308,30 +24431,30 @@
         <v>117</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" s="5">
-        <v>2605</v>
-      </c>
-      <c r="M40" s="43" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="L40" s="90">
+        <v>2604</v>
+      </c>
+      <c r="M40" s="92" t="s">
+        <v>194</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>134</v>
+      <c r="C41" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>36</v>
@@ -24352,33 +24475,33 @@
         <v>81</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L41" s="5">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O41" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -24399,36 +24522,36 @@
         <v>81</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L42" s="5">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="M42" s="43" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="4">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>37</v>
@@ -24452,10 +24575,10 @@
         <v>47</v>
       </c>
       <c r="L43" s="5">
-        <v>2609</v>
-      </c>
-      <c r="M43" s="50" t="s">
-        <v>138</v>
+        <v>2607</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>77</v>
@@ -24466,16 +24589,16 @@
     </row>
     <row r="44" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>36</v>
+        <v>133</v>
+      </c>
+      <c r="D44" s="4">
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>37</v>
@@ -24493,16 +24616,16 @@
         <v>81</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>47</v>
       </c>
       <c r="L44" s="5">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>77</v>
@@ -24512,196 +24635,195 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75">
+      <c r="A45" s="4">
+        <v>171</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="16">
+        <v>200</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2610</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
         <v>172</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B46" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C46" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="78">
+        <v>200</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="79">
+        <v>2611</v>
+      </c>
+      <c r="M46" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="82">
+        <v>174</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="85">
+        <v>200</v>
+      </c>
+      <c r="H47" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="86">
+        <v>2614</v>
+      </c>
+      <c r="M47" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="N47" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" s="83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44">
+        <v>148</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="45" t="s">
         <v>141</v>
-      </c>
-      <c r="D45" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="78">
-        <v>200</v>
-      </c>
-      <c r="H45" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45" s="79">
-        <v>2611</v>
-      </c>
-      <c r="M45" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="N45" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="O45" s="81" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82">
-        <v>174</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="85">
-        <v>200</v>
-      </c>
-      <c r="H46" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="K46" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" s="86">
-        <v>2614</v>
-      </c>
-      <c r="M46" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="N46" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="O46" s="83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="13"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="13"/>
-    </row>
-    <row r="49" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
-        <v>148</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="44">
-        <v>403</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="44">
-        <v>1111</v>
-      </c>
-      <c r="M49" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O49" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P49" s="13"/>
-    </row>
-    <row r="50" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
-        <v>146</v>
-      </c>
-      <c r="B50" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>35</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>36</v>
@@ -24728,76 +24850,76 @@
         <v>41</v>
       </c>
       <c r="L50" s="44">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M50" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44">
+        <v>146</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="N50" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O50" s="45" t="s">
+      <c r="D51" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="P50" s="13"/>
-    </row>
-    <row r="51" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>52</v>
-      </c>
-      <c r="B51" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="16">
-        <v>401</v>
-      </c>
-      <c r="H51" s="35" t="s">
+      <c r="G51" s="44">
+        <v>403</v>
+      </c>
+      <c r="H51" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L51" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N51" s="23" t="s">
+      <c r="L51" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M51" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>45</v>
+        <v>140</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>36</v>
@@ -24824,28 +24946,28 @@
         <v>41</v>
       </c>
       <c r="L52" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="29" t="s">
+      <c r="O52" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>36</v>
@@ -24857,7 +24979,7 @@
         <v>37</v>
       </c>
       <c r="G53" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>38</v>
@@ -24865,34 +24987,35 @@
       <c r="I53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L53" s="16">
-        <v>1003</v>
-      </c>
-      <c r="M53" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="N53" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O53" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>36</v>
@@ -24904,7 +25027,7 @@
         <v>37</v>
       </c>
       <c r="G54" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>38</v>
@@ -24916,30 +25039,30 @@
         <v>40</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="17">
-        <v>1004</v>
+        <v>47</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1003</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N54" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O54" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>53</v>
+        <v>140</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>36</v>
@@ -24951,7 +25074,7 @@
         <v>37</v>
       </c>
       <c r="G55" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>38</v>
@@ -24959,94 +25082,45 @@
       <c r="I55" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M55" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>42</v>
+      <c r="K55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="17">
+        <v>1004</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="O55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="14"/>
-      <c r="AN55" s="14"/>
-      <c r="AO55" s="14"/>
-      <c r="AP55" s="14"/>
-      <c r="AQ55" s="14"/>
-      <c r="AR55" s="14"/>
-      <c r="AS55" s="14"/>
-      <c r="AT55" s="14"/>
-      <c r="AU55" s="14"/>
-      <c r="AV55" s="14"/>
-      <c r="AW55" s="14"/>
-      <c r="AX55" s="14"/>
-      <c r="AY55" s="14"/>
-      <c r="AZ55" s="14"/>
-      <c r="BA55" s="14"/>
-      <c r="BB55" s="14"/>
-      <c r="BC55" s="14"/>
-      <c r="BD55" s="14"/>
-      <c r="BE55" s="14"/>
-      <c r="BF55" s="14"/>
-      <c r="BG55" s="14"/>
-      <c r="BH55" s="14"/>
-      <c r="BI55" s="14"/>
-      <c r="BJ55" s="14"/>
-      <c r="BK55" s="14"/>
-      <c r="BL55" s="14"/>
-      <c r="BM55" s="14"/>
-    </row>
-    <row r="56" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="16">
         <v>403</v>
       </c>
       <c r="H56" s="35" t="s">
@@ -25055,45 +25129,94 @@
       <c r="I56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J56" s="54" t="s">
+      <c r="J56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L56" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1005</v>
       </c>
       <c r="M56" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="14"/>
+      <c r="AN56" s="14"/>
+      <c r="AO56" s="14"/>
+      <c r="AP56" s="14"/>
+      <c r="AQ56" s="14"/>
+      <c r="AR56" s="14"/>
+      <c r="AS56" s="14"/>
+      <c r="AT56" s="14"/>
+      <c r="AU56" s="14"/>
+      <c r="AV56" s="14"/>
+      <c r="AW56" s="14"/>
+      <c r="AX56" s="14"/>
+      <c r="AY56" s="14"/>
+      <c r="AZ56" s="14"/>
+      <c r="BA56" s="14"/>
+      <c r="BB56" s="14"/>
+      <c r="BC56" s="14"/>
+      <c r="BD56" s="14"/>
+      <c r="BE56" s="14"/>
+      <c r="BF56" s="14"/>
+      <c r="BG56" s="14"/>
+      <c r="BH56" s="14"/>
+      <c r="BI56" s="14"/>
+      <c r="BJ56" s="14"/>
+      <c r="BK56" s="14"/>
+      <c r="BL56" s="14"/>
+      <c r="BM56" s="14"/>
+    </row>
+    <row r="57" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>117</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N56" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="55" t="s">
+      <c r="D57" s="54" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>57</v>
-      </c>
-      <c r="B57" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="4">
         <v>403</v>
       </c>
       <c r="H57" s="35" t="s">
@@ -25102,34 +25225,34 @@
       <c r="I57" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="17">
-        <v>1006</v>
-      </c>
-      <c r="M57" s="23" t="s">
+      <c r="L57" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="N57" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O57" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>58</v>
-      </c>
       <c r="B58" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>36</v>
@@ -25153,30 +25276,30 @@
         <v>40</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L58" s="17">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N58" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O58" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="B59" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>36</v>
@@ -25203,29 +25326,29 @@
         <v>47</v>
       </c>
       <c r="L59" s="17">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N59" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O59" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -25247,32 +25370,32 @@
         <v>40</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L60" s="16">
-        <v>1011</v>
+        <v>47</v>
+      </c>
+      <c r="L60" s="17">
+        <v>1008</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N60" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -25282,7 +25405,7 @@
         <v>37</v>
       </c>
       <c r="G61" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>38</v>
@@ -25290,266 +25413,314 @@
       <c r="I61" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="16">
+        <v>404</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="4">
         <v>2501</v>
       </c>
-      <c r="M61" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="N61" s="22" t="s">
+      <c r="M62" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="O61" s="22" t="s">
+      <c r="O62" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="13"/>
-    </row>
-    <row r="63" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97" t="s">
+    <row r="63" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>177</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="5">
+        <v>401</v>
+      </c>
+      <c r="H63" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+      <c r="AK63" s="14"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="14"/>
+      <c r="AN63" s="14"/>
+      <c r="AO63" s="14"/>
+      <c r="AP63" s="14"/>
+      <c r="AQ63" s="14"/>
+      <c r="AR63" s="14"/>
+      <c r="AS63" s="14"/>
+      <c r="AT63" s="14"/>
+      <c r="AU63" s="14"/>
+      <c r="AV63" s="14"/>
+      <c r="AW63" s="14"/>
+      <c r="AX63" s="14"/>
+      <c r="AY63" s="14"/>
+      <c r="AZ63" s="14"/>
+      <c r="BA63" s="14"/>
+      <c r="BB63" s="14"/>
+      <c r="BC63" s="14"/>
+      <c r="BD63" s="14"/>
+      <c r="BE63" s="14"/>
+      <c r="BF63" s="14"/>
+      <c r="BG63" s="14"/>
+      <c r="BH63" s="14"/>
+      <c r="BI63" s="14"/>
+      <c r="BJ63" s="14"/>
+      <c r="BK63" s="14"/>
+      <c r="BL63" s="14"/>
+      <c r="BM63" s="14"/>
+      <c r="BN63" s="14"/>
+    </row>
+    <row r="64" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="105"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="103"/>
+      <c r="N65" s="103"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
         <v>148</v>
       </c>
-      <c r="B64" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="44" t="s">
+      <c r="B66" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E66" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F66" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G66" s="44">
         <v>403</v>
       </c>
-      <c r="H64" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" s="44">
-        <v>1111</v>
-      </c>
-      <c r="M64" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N64" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O64" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P64" s="13"/>
-    </row>
-    <row r="65" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
-        <v>146</v>
-      </c>
-      <c r="B65" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" s="44">
-        <v>403</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L65" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M65" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N65" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O65" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="P65" s="13"/>
-    </row>
-    <row r="66" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>62</v>
-      </c>
-      <c r="B66" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="16">
-        <v>401</v>
-      </c>
-      <c r="H66" s="35" t="s">
+      <c r="H66" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L66" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N66" s="23" t="s">
+      <c r="L66" s="44">
+        <v>1111</v>
+      </c>
+      <c r="M66" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O66" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" s="13"/>
+    </row>
+    <row r="67" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44">
+        <v>146</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="O66" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="P66" s="13"/>
-    </row>
-    <row r="67" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>63</v>
-      </c>
-      <c r="B67" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="16">
-        <v>401</v>
-      </c>
-      <c r="H67" s="35" t="s">
+      <c r="G67" s="44">
+        <v>403</v>
+      </c>
+      <c r="H67" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L67" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N67" s="23" t="s">
+      <c r="L67" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M67" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O67" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="P67" s="13"/>
     </row>
-    <row r="68" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>36</v>
@@ -25561,7 +25732,7 @@
         <v>37</v>
       </c>
       <c r="G68" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>38</v>
@@ -25569,34 +25740,35 @@
       <c r="I68" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="17" t="s">
+      <c r="J68" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L68" s="17">
-        <v>1003</v>
-      </c>
-      <c r="M68" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N68" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="13"/>
+    </row>
+    <row r="69" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>36</v>
@@ -25608,7 +25780,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="16">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H69" s="35" t="s">
         <v>38</v>
@@ -25616,34 +25788,35 @@
       <c r="I69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L69" s="17">
-        <v>1004</v>
-      </c>
-      <c r="M69" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N69" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O69" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" s="13"/>
+    </row>
+    <row r="70" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>36</v>
@@ -25663,95 +25836,46 @@
       <c r="I70" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L70" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O70" s="22" t="s">
+      <c r="L70" s="17">
+        <v>1003</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
-      <c r="AN70" s="14"/>
-      <c r="AO70" s="14"/>
-      <c r="AP70" s="14"/>
-      <c r="AQ70" s="14"/>
-      <c r="AR70" s="14"/>
-      <c r="AS70" s="14"/>
-      <c r="AT70" s="14"/>
-      <c r="AU70" s="14"/>
-      <c r="AV70" s="14"/>
-      <c r="AW70" s="14"/>
-      <c r="AX70" s="14"/>
-      <c r="AY70" s="14"/>
-      <c r="AZ70" s="14"/>
-      <c r="BA70" s="14"/>
-      <c r="BB70" s="14"/>
-      <c r="BC70" s="14"/>
-      <c r="BD70" s="14"/>
-      <c r="BE70" s="14"/>
-      <c r="BF70" s="14"/>
-      <c r="BG70" s="14"/>
-      <c r="BH70" s="14"/>
-      <c r="BI70" s="14"/>
-      <c r="BJ70" s="14"/>
-      <c r="BK70" s="14"/>
-      <c r="BL70" s="14"/>
-      <c r="BM70" s="14"/>
-    </row>
-    <row r="71" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G71" s="4">
-        <v>403</v>
+      <c r="G71" s="16">
+        <v>400</v>
       </c>
       <c r="H71" s="35" t="s">
         <v>38</v>
@@ -25759,34 +25883,34 @@
       <c r="I71" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J71" s="54" t="s">
+      <c r="J71" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="54">
-        <v>1015</v>
+      <c r="L71" s="17">
+        <v>1004</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O71" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>56</v>
+        <v>151</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>36</v>
@@ -25806,45 +25930,94 @@
       <c r="I72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="16" t="s">
+      <c r="J72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L72" s="17">
-        <v>1006</v>
+      <c r="K72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1005</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N72" s="22" t="s">
-        <v>147</v>
+        <v>54</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="O72" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+      <c r="AK72" s="14"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="14"/>
+      <c r="AN72" s="14"/>
+      <c r="AO72" s="14"/>
+      <c r="AP72" s="14"/>
+      <c r="AQ72" s="14"/>
+      <c r="AR72" s="14"/>
+      <c r="AS72" s="14"/>
+      <c r="AT72" s="14"/>
+      <c r="AU72" s="14"/>
+      <c r="AV72" s="14"/>
+      <c r="AW72" s="14"/>
+      <c r="AX72" s="14"/>
+      <c r="AY72" s="14"/>
+      <c r="AZ72" s="14"/>
+      <c r="BA72" s="14"/>
+      <c r="BB72" s="14"/>
+      <c r="BC72" s="14"/>
+      <c r="BD72" s="14"/>
+      <c r="BE72" s="14"/>
+      <c r="BF72" s="14"/>
+      <c r="BG72" s="14"/>
+      <c r="BH72" s="14"/>
+      <c r="BI72" s="14"/>
+      <c r="BJ72" s="14"/>
+      <c r="BK72" s="14"/>
+      <c r="BL72" s="14"/>
+      <c r="BM72" s="14"/>
+    </row>
+    <row r="73" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="4">
         <v>403</v>
       </c>
       <c r="H73" s="35" t="s">
@@ -25853,34 +26026,34 @@
       <c r="I73" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K73" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L73" s="17">
-        <v>1007</v>
+      <c r="K73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L73" s="54">
+        <v>1015</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O73" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O73" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>36</v>
@@ -25904,32 +26077,32 @@
         <v>40</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L74" s="17">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O74" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -25951,30 +26124,30 @@
         <v>40</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L75" s="16">
-        <v>1011</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="L75" s="17">
+        <v>1007</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="N75" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>36</v>
@@ -25986,7 +26159,7 @@
         <v>37</v>
       </c>
       <c r="G76" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H76" s="35" t="s">
         <v>38</v>
@@ -25994,186 +26167,142 @@
       <c r="I76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="17">
+        <v>1008</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>70</v>
+      </c>
+      <c r="B77" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="16">
+        <v>403</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N77" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>71</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="16">
+        <v>404</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="5">
         <v>2506</v>
       </c>
-      <c r="M76" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="N76" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O76" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="13"/>
-      <c r="AD77" s="13"/>
-      <c r="AE77" s="13"/>
-      <c r="AF77" s="13"/>
-      <c r="AG77" s="13"/>
-      <c r="AH77" s="13"/>
-      <c r="AI77" s="13"/>
-      <c r="AJ77" s="13"/>
-      <c r="AK77" s="13"/>
-      <c r="AL77" s="13"/>
-      <c r="AM77" s="13"/>
-      <c r="AN77" s="13"/>
-      <c r="AO77" s="13"/>
-      <c r="AP77" s="13"/>
-      <c r="AQ77" s="13"/>
-      <c r="AR77" s="13"/>
-      <c r="AS77" s="13"/>
-      <c r="AT77" s="13"/>
-      <c r="AU77" s="13"/>
-      <c r="AV77" s="13"/>
-      <c r="AW77" s="13"/>
-      <c r="AX77" s="13"/>
-      <c r="AY77" s="13"/>
-      <c r="AZ77" s="13"/>
-      <c r="BA77" s="13"/>
-      <c r="BB77" s="13"/>
-      <c r="BC77" s="13"/>
-      <c r="BD77" s="13"/>
-      <c r="BE77" s="13"/>
-      <c r="BF77" s="13"/>
-      <c r="BG77" s="13"/>
-      <c r="BH77" s="13"/>
-      <c r="BI77" s="13"/>
-      <c r="BJ77" s="13"/>
-      <c r="BK77" s="13"/>
-      <c r="BL77" s="13"/>
-      <c r="BM77" s="13"/>
-    </row>
-    <row r="78" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="98"/>
-      <c r="H78" s="98"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="98"/>
-      <c r="K78" s="98"/>
-      <c r="L78" s="98"/>
-      <c r="M78" s="98"/>
-      <c r="N78" s="98"/>
-      <c r="O78" s="98"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="13"/>
-      <c r="AD78" s="13"/>
-      <c r="AE78" s="13"/>
-      <c r="AF78" s="13"/>
-      <c r="AG78" s="13"/>
-      <c r="AH78" s="13"/>
-      <c r="AI78" s="13"/>
-      <c r="AJ78" s="13"/>
-      <c r="AK78" s="13"/>
-      <c r="AL78" s="13"/>
-      <c r="AM78" s="13"/>
-      <c r="AN78" s="13"/>
-      <c r="AO78" s="13"/>
-      <c r="AP78" s="13"/>
-      <c r="AQ78" s="13"/>
-      <c r="AR78" s="13"/>
-      <c r="AS78" s="13"/>
-      <c r="AT78" s="13"/>
-      <c r="AU78" s="13"/>
-      <c r="AV78" s="13"/>
-      <c r="AW78" s="13"/>
-      <c r="AX78" s="13"/>
-      <c r="AY78" s="13"/>
-      <c r="AZ78" s="13"/>
-      <c r="BA78" s="13"/>
-      <c r="BB78" s="13"/>
-      <c r="BC78" s="13"/>
-      <c r="BD78" s="13"/>
-      <c r="BE78" s="13"/>
-      <c r="BF78" s="13"/>
-      <c r="BG78" s="13"/>
-      <c r="BH78" s="13"/>
-      <c r="BI78" s="13"/>
-      <c r="BJ78" s="13"/>
-      <c r="BK78" s="13"/>
-      <c r="BL78" s="13"/>
-      <c r="BM78" s="13"/>
-    </row>
-    <row r="79" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44">
-        <v>146</v>
+      <c r="M78" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O78" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>178</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="44" t="s">
+      <c r="E79" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="44">
-        <v>403</v>
-      </c>
-      <c r="H79" s="44" t="s">
+      <c r="G79" s="5">
+        <v>401</v>
+      </c>
+      <c r="H79" s="85" t="s">
         <v>38</v>
       </c>
       <c r="I79" s="16" t="s">
@@ -26185,115 +26314,87 @@
       <c r="K79" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L79" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M79" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N79" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O79" s="45" t="s">
+      <c r="L79" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N79" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="13"/>
-      <c r="AD79" s="13"/>
-      <c r="AE79" s="13"/>
-      <c r="AF79" s="13"/>
-      <c r="AG79" s="13"/>
-      <c r="AH79" s="13"/>
-      <c r="AI79" s="13"/>
-      <c r="AJ79" s="13"/>
-      <c r="AK79" s="13"/>
-      <c r="AL79" s="13"/>
-      <c r="AM79" s="13"/>
-      <c r="AN79" s="13"/>
-      <c r="AO79" s="13"/>
-      <c r="AP79" s="13"/>
-      <c r="AQ79" s="13"/>
-      <c r="AR79" s="13"/>
-      <c r="AS79" s="13"/>
-      <c r="AT79" s="13"/>
-      <c r="AU79" s="13"/>
-      <c r="AV79" s="13"/>
-      <c r="AW79" s="13"/>
-      <c r="AX79" s="13"/>
-      <c r="AY79" s="13"/>
-      <c r="AZ79" s="13"/>
-      <c r="BA79" s="13"/>
-      <c r="BB79" s="13"/>
-      <c r="BC79" s="13"/>
-      <c r="BD79" s="13"/>
-      <c r="BE79" s="13"/>
-      <c r="BF79" s="13"/>
-      <c r="BG79" s="13"/>
-      <c r="BH79" s="13"/>
-      <c r="BI79" s="13"/>
-      <c r="BJ79" s="13"/>
-      <c r="BK79" s="13"/>
-      <c r="BL79" s="13"/>
-      <c r="BM79" s="13"/>
-    </row>
-    <row r="80" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>72</v>
-      </c>
-      <c r="B80" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="O79" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="16">
-        <v>401</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L80" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N80" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O80" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+      <c r="AK79" s="14"/>
+      <c r="AL79" s="14"/>
+      <c r="AM79" s="14"/>
+      <c r="AN79" s="14"/>
+      <c r="AO79" s="14"/>
+      <c r="AP79" s="14"/>
+      <c r="AQ79" s="14"/>
+      <c r="AR79" s="14"/>
+      <c r="AS79" s="14"/>
+      <c r="AT79" s="14"/>
+      <c r="AU79" s="14"/>
+      <c r="AV79" s="14"/>
+      <c r="AW79" s="14"/>
+      <c r="AX79" s="14"/>
+      <c r="AY79" s="14"/>
+      <c r="AZ79" s="14"/>
+      <c r="BA79" s="14"/>
+      <c r="BB79" s="14"/>
+      <c r="BC79" s="14"/>
+      <c r="BD79" s="14"/>
+      <c r="BE79" s="14"/>
+      <c r="BF79" s="14"/>
+      <c r="BG79" s="14"/>
+      <c r="BH79" s="14"/>
+      <c r="BI79" s="14"/>
+      <c r="BJ79" s="14"/>
+      <c r="BK79" s="14"/>
+      <c r="BL79" s="14"/>
+      <c r="BM79" s="14"/>
+      <c r="BN79" s="14"/>
+    </row>
+    <row r="80" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="101"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
@@ -26345,52 +26446,24 @@
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
     </row>
-    <row r="81" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>73</v>
-      </c>
-      <c r="B81" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="16">
-        <v>401</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L81" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M81" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N81" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O81" s="29" t="s">
-        <v>36</v>
-      </c>
+    <row r="81" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="103"/>
+      <c r="L81" s="103"/>
+      <c r="M81" s="103"/>
+      <c r="N81" s="103"/>
+      <c r="O81" s="103"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
@@ -26442,111 +26515,112 @@
       <c r="BL81" s="13"/>
       <c r="BM81" s="13"/>
     </row>
-    <row r="82" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>75</v>
+    <row r="82" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44">
+        <v>146</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="44">
         <v>403</v>
       </c>
-      <c r="H82" s="35" t="s">
+      <c r="H82" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L82" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M82" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N82" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O82" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="14"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="14"/>
-      <c r="Z82" s="14"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="14"/>
-      <c r="AC82" s="14"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="14"/>
-      <c r="AF82" s="14"/>
-      <c r="AG82" s="14"/>
-      <c r="AH82" s="14"/>
-      <c r="AI82" s="14"/>
-      <c r="AJ82" s="14"/>
-      <c r="AK82" s="14"/>
-      <c r="AL82" s="14"/>
-      <c r="AM82" s="14"/>
-      <c r="AN82" s="14"/>
-      <c r="AO82" s="14"/>
-      <c r="AP82" s="14"/>
-      <c r="AQ82" s="14"/>
-      <c r="AR82" s="14"/>
-      <c r="AS82" s="14"/>
-      <c r="AT82" s="14"/>
-      <c r="AU82" s="14"/>
-      <c r="AV82" s="14"/>
-      <c r="AW82" s="14"/>
-      <c r="AX82" s="14"/>
-      <c r="AY82" s="14"/>
-      <c r="AZ82" s="14"/>
-      <c r="BA82" s="14"/>
-      <c r="BB82" s="14"/>
-      <c r="BC82" s="14"/>
-      <c r="BD82" s="14"/>
-      <c r="BE82" s="14"/>
-      <c r="BF82" s="14"/>
-      <c r="BG82" s="14"/>
-      <c r="BH82" s="14"/>
-      <c r="BI82" s="14"/>
-      <c r="BJ82" s="14"/>
-      <c r="BK82" s="14"/>
-      <c r="BL82" s="14"/>
-      <c r="BM82" s="14"/>
-    </row>
-    <row r="83" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M82" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="13"/>
+      <c r="AO82" s="13"/>
+      <c r="AP82" s="13"/>
+      <c r="AQ82" s="13"/>
+      <c r="AR82" s="13"/>
+      <c r="AS82" s="13"/>
+      <c r="AT82" s="13"/>
+      <c r="AU82" s="13"/>
+      <c r="AV82" s="13"/>
+      <c r="AW82" s="13"/>
+      <c r="AX82" s="13"/>
+      <c r="AY82" s="13"/>
+      <c r="AZ82" s="13"/>
+      <c r="BA82" s="13"/>
+      <c r="BB82" s="13"/>
+      <c r="BC82" s="13"/>
+      <c r="BD82" s="13"/>
+      <c r="BE82" s="13"/>
+      <c r="BF82" s="13"/>
+      <c r="BG82" s="13"/>
+      <c r="BH82" s="13"/>
+      <c r="BI82" s="13"/>
+      <c r="BJ82" s="13"/>
+      <c r="BK82" s="13"/>
+      <c r="BL82" s="13"/>
+      <c r="BM82" s="13"/>
+    </row>
+    <row r="83" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>50</v>
+        <v>157</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>36</v>
@@ -26558,7 +26632,7 @@
         <v>37</v>
       </c>
       <c r="G83" s="16">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H83" s="35" t="s">
         <v>38</v>
@@ -26570,79 +26644,80 @@
         <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L83" s="5">
-        <v>1004</v>
-      </c>
-      <c r="M83" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="N83" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O83" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="14"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="14"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
-      <c r="AH83" s="14"/>
-      <c r="AI83" s="14"/>
-      <c r="AJ83" s="14"/>
-      <c r="AK83" s="14"/>
-      <c r="AL83" s="14"/>
-      <c r="AM83" s="14"/>
-      <c r="AN83" s="14"/>
-      <c r="AO83" s="14"/>
-      <c r="AP83" s="14"/>
-      <c r="AQ83" s="14"/>
-      <c r="AR83" s="14"/>
-      <c r="AS83" s="14"/>
-      <c r="AT83" s="14"/>
-      <c r="AU83" s="14"/>
-      <c r="AV83" s="14"/>
-      <c r="AW83" s="14"/>
-      <c r="AX83" s="14"/>
-      <c r="AY83" s="14"/>
-      <c r="AZ83" s="14"/>
-      <c r="BA83" s="14"/>
-      <c r="BB83" s="14"/>
-      <c r="BC83" s="14"/>
-      <c r="BD83" s="14"/>
-      <c r="BE83" s="14"/>
-      <c r="BF83" s="14"/>
-      <c r="BG83" s="14"/>
-      <c r="BH83" s="14"/>
-      <c r="BI83" s="14"/>
-      <c r="BJ83" s="14"/>
-      <c r="BK83" s="14"/>
-      <c r="BL83" s="14"/>
-      <c r="BM83" s="14"/>
-    </row>
-    <row r="84" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N83" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13"/>
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13"/>
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13"/>
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13"/>
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13"/>
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13"/>
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13"/>
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+      <c r="BM83" s="13"/>
+    </row>
+    <row r="84" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>53</v>
+        <v>157</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>36</v>
@@ -26654,7 +26729,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H84" s="35" t="s">
         <v>38</v>
@@ -26666,90 +26741,91 @@
         <v>40</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L84" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M84" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N84" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O84" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="14"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="14"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="14"/>
-      <c r="AI84" s="14"/>
-      <c r="AJ84" s="14"/>
-      <c r="AK84" s="14"/>
-      <c r="AL84" s="14"/>
-      <c r="AM84" s="14"/>
-      <c r="AN84" s="14"/>
-      <c r="AO84" s="14"/>
-      <c r="AP84" s="14"/>
-      <c r="AQ84" s="14"/>
-      <c r="AR84" s="14"/>
-      <c r="AS84" s="14"/>
-      <c r="AT84" s="14"/>
-      <c r="AU84" s="14"/>
-      <c r="AV84" s="14"/>
-      <c r="AW84" s="14"/>
-      <c r="AX84" s="14"/>
-      <c r="AY84" s="14"/>
-      <c r="AZ84" s="14"/>
-      <c r="BA84" s="14"/>
-      <c r="BB84" s="14"/>
-      <c r="BC84" s="14"/>
-      <c r="BD84" s="14"/>
-      <c r="BE84" s="14"/>
-      <c r="BF84" s="14"/>
-      <c r="BG84" s="14"/>
-      <c r="BH84" s="14"/>
-      <c r="BI84" s="14"/>
-      <c r="BJ84" s="14"/>
-      <c r="BK84" s="14"/>
-      <c r="BL84" s="14"/>
-      <c r="BM84" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N84" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AQ84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BL84" s="13"/>
+      <c r="BM84" s="13"/>
     </row>
     <row r="85" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="54" t="s">
+      <c r="E85" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="16">
         <v>403</v>
       </c>
       <c r="H85" s="35" t="s">
@@ -26758,23 +26834,23 @@
       <c r="I85" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="54" t="s">
+      <c r="J85" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L85" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L85" s="5">
+        <v>1003</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="N85" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O85" s="55" t="s">
-        <v>36</v>
+        <v>158</v>
+      </c>
+      <c r="O85" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="Q85" s="14"/>
       <c r="R85" s="14"/>
@@ -26826,15 +26902,15 @@
       <c r="BL85" s="14"/>
       <c r="BM85" s="14"/>
     </row>
-    <row r="86" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>36</v>
@@ -26846,7 +26922,7 @@
         <v>37</v>
       </c>
       <c r="G86" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H86" s="35" t="s">
         <v>38</v>
@@ -26861,16 +26937,16 @@
         <v>51</v>
       </c>
       <c r="L86" s="5">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="N86" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O86" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q86" s="14"/>
       <c r="R86" s="14"/>
@@ -26922,15 +26998,15 @@
       <c r="BL86" s="14"/>
       <c r="BM86" s="14"/>
     </row>
-    <row r="87" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>36</v>
@@ -26957,16 +27033,16 @@
         <v>47</v>
       </c>
       <c r="L87" s="5">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N87" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O87" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q87" s="14"/>
       <c r="R87" s="14"/>
@@ -27018,26 +27094,26 @@
       <c r="BL87" s="14"/>
       <c r="BM87" s="14"/>
     </row>
-    <row r="88" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="4">
         <v>403</v>
       </c>
       <c r="H88" s="35" t="s">
@@ -27046,23 +27122,23 @@
       <c r="I88" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L88" s="5">
-        <v>1008</v>
+        <v>51</v>
+      </c>
+      <c r="L88" s="54">
+        <v>1015</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="N88" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O88" s="22" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="O88" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="Q88" s="14"/>
       <c r="R88" s="14"/>
@@ -27114,15 +27190,15 @@
       <c r="BL88" s="14"/>
       <c r="BM88" s="14"/>
     </row>
-    <row r="89" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>36</v>
@@ -27146,19 +27222,19 @@
         <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L89" s="5">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N89" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O89" s="22" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q89" s="14"/>
       <c r="R89" s="14"/>
@@ -27210,15 +27286,15 @@
       <c r="BL89" s="14"/>
       <c r="BM89" s="14"/>
     </row>
-    <row r="90" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
-        <v>169</v>
+    <row r="90" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>79</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>36</v>
@@ -27230,7 +27306,7 @@
         <v>37</v>
       </c>
       <c r="G90" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H90" s="35" t="s">
         <v>38</v>
@@ -27244,90 +27320,89 @@
       <c r="K90" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L90" s="18">
-        <v>3101</v>
-      </c>
-      <c r="M90" s="40" t="s">
-        <v>166</v>
+      <c r="L90" s="5">
+        <v>1007</v>
+      </c>
+      <c r="M90" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
-      <c r="AA90" s="13"/>
-      <c r="AB90" s="13"/>
-      <c r="AC90" s="13"/>
-      <c r="AD90" s="13"/>
-      <c r="AE90" s="13"/>
-      <c r="AF90" s="13"/>
-      <c r="AG90" s="13"/>
-      <c r="AH90" s="13"/>
-      <c r="AI90" s="13"/>
-      <c r="AJ90" s="13"/>
-      <c r="AK90" s="13"/>
-      <c r="AL90" s="13"/>
-      <c r="AM90" s="13"/>
-      <c r="AN90" s="13"/>
-      <c r="AO90" s="13"/>
-      <c r="AP90" s="13"/>
-      <c r="AQ90" s="13"/>
-      <c r="AR90" s="13"/>
-      <c r="AS90" s="13"/>
-      <c r="AT90" s="13"/>
-      <c r="AU90" s="13"/>
-      <c r="AV90" s="13"/>
-      <c r="AW90" s="13"/>
-      <c r="AX90" s="13"/>
-      <c r="AY90" s="13"/>
-      <c r="AZ90" s="13"/>
-      <c r="BA90" s="13"/>
-      <c r="BB90" s="13"/>
-      <c r="BC90" s="13"/>
-      <c r="BD90" s="13"/>
-      <c r="BE90" s="13"/>
-      <c r="BF90" s="13"/>
-      <c r="BG90" s="13"/>
-      <c r="BH90" s="13"/>
-      <c r="BI90" s="13"/>
-      <c r="BJ90" s="13"/>
-      <c r="BK90" s="13"/>
-      <c r="BL90" s="13"/>
-      <c r="BM90" s="13"/>
-    </row>
-    <row r="91" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="35">
-        <v>156</v>
+        <v>58</v>
+      </c>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="14"/>
+      <c r="AF90" s="14"/>
+      <c r="AG90" s="14"/>
+      <c r="AH90" s="14"/>
+      <c r="AI90" s="14"/>
+      <c r="AJ90" s="14"/>
+      <c r="AK90" s="14"/>
+      <c r="AL90" s="14"/>
+      <c r="AM90" s="14"/>
+      <c r="AN90" s="14"/>
+      <c r="AO90" s="14"/>
+      <c r="AP90" s="14"/>
+      <c r="AQ90" s="14"/>
+      <c r="AR90" s="14"/>
+      <c r="AS90" s="14"/>
+      <c r="AT90" s="14"/>
+      <c r="AU90" s="14"/>
+      <c r="AV90" s="14"/>
+      <c r="AW90" s="14"/>
+      <c r="AX90" s="14"/>
+      <c r="AY90" s="14"/>
+      <c r="AZ90" s="14"/>
+      <c r="BA90" s="14"/>
+      <c r="BB90" s="14"/>
+      <c r="BC90" s="14"/>
+      <c r="BD90" s="14"/>
+      <c r="BE90" s="14"/>
+      <c r="BF90" s="14"/>
+      <c r="BG90" s="14"/>
+      <c r="BH90" s="14"/>
+      <c r="BI90" s="14"/>
+      <c r="BJ90" s="14"/>
+      <c r="BK90" s="14"/>
+      <c r="BL90" s="14"/>
+      <c r="BM90" s="14"/>
+    </row>
+    <row r="91" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>80</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D91" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="35" t="s">
+      <c r="F91" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G91" s="35">
-        <v>400</v>
+      <c r="G91" s="16">
+        <v>403</v>
       </c>
       <c r="H91" s="35" t="s">
         <v>38</v>
@@ -27335,99 +27410,98 @@
       <c r="I91" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J91" s="35" t="s">
+      <c r="J91" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L91" s="35">
-        <v>3014</v>
-      </c>
-      <c r="M91" s="47" t="s">
-        <v>169</v>
+      <c r="K91" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1008</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O91" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="13"/>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="13"/>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="13"/>
-      <c r="AH91" s="13"/>
-      <c r="AI91" s="13"/>
-      <c r="AJ91" s="13"/>
-      <c r="AK91" s="13"/>
-      <c r="AL91" s="13"/>
-      <c r="AM91" s="13"/>
-      <c r="AN91" s="13"/>
-      <c r="AO91" s="13"/>
-      <c r="AP91" s="13"/>
-      <c r="AQ91" s="13"/>
-      <c r="AR91" s="13"/>
-      <c r="AS91" s="13"/>
-      <c r="AT91" s="13"/>
-      <c r="AU91" s="13"/>
-      <c r="AV91" s="13"/>
-      <c r="AW91" s="13"/>
-      <c r="AX91" s="13"/>
-      <c r="AY91" s="13"/>
-      <c r="AZ91" s="13"/>
-      <c r="BA91" s="13"/>
-      <c r="BB91" s="13"/>
-      <c r="BC91" s="13"/>
-      <c r="BD91" s="13"/>
-      <c r="BE91" s="13"/>
-      <c r="BF91" s="13"/>
-      <c r="BG91" s="13"/>
-      <c r="BH91" s="13"/>
-      <c r="BI91" s="13"/>
-      <c r="BJ91" s="13"/>
-      <c r="BK91" s="13"/>
-      <c r="BL91" s="13"/>
-      <c r="BM91" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="O91" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="14"/>
+      <c r="AF91" s="14"/>
+      <c r="AG91" s="14"/>
+      <c r="AH91" s="14"/>
+      <c r="AI91" s="14"/>
+      <c r="AJ91" s="14"/>
+      <c r="AK91" s="14"/>
+      <c r="AL91" s="14"/>
+      <c r="AM91" s="14"/>
+      <c r="AN91" s="14"/>
+      <c r="AO91" s="14"/>
+      <c r="AP91" s="14"/>
+      <c r="AQ91" s="14"/>
+      <c r="AR91" s="14"/>
+      <c r="AS91" s="14"/>
+      <c r="AT91" s="14"/>
+      <c r="AU91" s="14"/>
+      <c r="AV91" s="14"/>
+      <c r="AW91" s="14"/>
+      <c r="AX91" s="14"/>
+      <c r="AY91" s="14"/>
+      <c r="AZ91" s="14"/>
+      <c r="BA91" s="14"/>
+      <c r="BB91" s="14"/>
+      <c r="BC91" s="14"/>
+      <c r="BD91" s="14"/>
+      <c r="BE91" s="14"/>
+      <c r="BF91" s="14"/>
+      <c r="BG91" s="14"/>
+      <c r="BH91" s="14"/>
+      <c r="BI91" s="14"/>
+      <c r="BJ91" s="14"/>
+      <c r="BK91" s="14"/>
+      <c r="BL91" s="14"/>
+      <c r="BM91" s="14"/>
     </row>
     <row r="92" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" s="4">
-        <v>9</v>
-      </c>
-      <c r="E92" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G92" s="16">
-        <v>200</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>80</v>
+        <v>403</v>
+      </c>
+      <c r="H92" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>39</v>
@@ -27436,45 +27510,94 @@
         <v>40</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L92" s="4">
-        <v>1010</v>
+        <v>41</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1011</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="N92" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O92" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+      <c r="AG92" s="14"/>
+      <c r="AH92" s="14"/>
+      <c r="AI92" s="14"/>
+      <c r="AJ92" s="14"/>
+      <c r="AK92" s="14"/>
+      <c r="AL92" s="14"/>
+      <c r="AM92" s="14"/>
+      <c r="AN92" s="14"/>
+      <c r="AO92" s="14"/>
+      <c r="AP92" s="14"/>
+      <c r="AQ92" s="14"/>
+      <c r="AR92" s="14"/>
+      <c r="AS92" s="14"/>
+      <c r="AT92" s="14"/>
+      <c r="AU92" s="14"/>
+      <c r="AV92" s="14"/>
+      <c r="AW92" s="14"/>
+      <c r="AX92" s="14"/>
+      <c r="AY92" s="14"/>
+      <c r="AZ92" s="14"/>
+      <c r="BA92" s="14"/>
+      <c r="BB92" s="14"/>
+      <c r="BC92" s="14"/>
+      <c r="BD92" s="14"/>
+      <c r="BE92" s="14"/>
+      <c r="BF92" s="14"/>
+      <c r="BG92" s="14"/>
+      <c r="BH92" s="14"/>
+      <c r="BI92" s="14"/>
+      <c r="BJ92" s="14"/>
+      <c r="BK92" s="14"/>
+      <c r="BL92" s="14"/>
+      <c r="BM92" s="14"/>
+    </row>
+    <row r="93" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18">
+        <v>169</v>
       </c>
       <c r="B93" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="F93" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G93" s="16">
-        <v>200</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>80</v>
+        <v>400</v>
+      </c>
+      <c r="H93" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>39</v>
@@ -27483,39 +27606,117 @@
         <v>40</v>
       </c>
       <c r="K93" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L93" s="18">
+        <v>3101</v>
+      </c>
+      <c r="M93" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O93" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="13"/>
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="13"/>
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="13"/>
+      <c r="AI93" s="13"/>
+      <c r="AJ93" s="13"/>
+      <c r="AK93" s="13"/>
+      <c r="AL93" s="13"/>
+      <c r="AM93" s="13"/>
+      <c r="AN93" s="13"/>
+      <c r="AO93" s="13"/>
+      <c r="AP93" s="13"/>
+      <c r="AQ93" s="13"/>
+      <c r="AR93" s="13"/>
+      <c r="AS93" s="13"/>
+      <c r="AT93" s="13"/>
+      <c r="AU93" s="13"/>
+      <c r="AV93" s="13"/>
+      <c r="AW93" s="13"/>
+      <c r="AX93" s="13"/>
+      <c r="AY93" s="13"/>
+      <c r="AZ93" s="13"/>
+      <c r="BA93" s="13"/>
+      <c r="BB93" s="13"/>
+      <c r="BC93" s="13"/>
+      <c r="BD93" s="13"/>
+      <c r="BE93" s="13"/>
+      <c r="BF93" s="13"/>
+      <c r="BG93" s="13"/>
+      <c r="BH93" s="13"/>
+      <c r="BI93" s="13"/>
+      <c r="BJ93" s="13"/>
+      <c r="BK93" s="13"/>
+      <c r="BL93" s="13"/>
+      <c r="BM93" s="13"/>
+    </row>
+    <row r="94" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="35">
+        <v>156</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="35">
+        <v>400</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L93" s="4">
-        <v>3015</v>
-      </c>
-      <c r="M93" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="N93" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O93" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="96"/>
-      <c r="O94" s="96"/>
+      <c r="L94" s="35">
+        <v>3014</v>
+      </c>
+      <c r="M94" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O94" s="58" t="s">
+        <v>166</v>
+      </c>
       <c r="P94" s="13"/>
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
@@ -27567,269 +27768,341 @@
       <c r="BL94" s="13"/>
       <c r="BM94" s="13"/>
     </row>
-    <row r="95" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="98"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="98"/>
-      <c r="K95" s="98"/>
-      <c r="L95" s="98"/>
-      <c r="M95" s="98"/>
-      <c r="N95" s="98"/>
-      <c r="O95" s="98"/>
-    </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A96" s="44">
-        <v>146</v>
+    <row r="95" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>168</v>
+      </c>
+      <c r="B95" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="4">
+        <v>9</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="16">
+        <v>200</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O95" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>175</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="44">
-        <v>403</v>
-      </c>
-      <c r="H96" s="44" t="s">
-        <v>38</v>
+      <c r="G96" s="16">
+        <v>200</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J96" s="44" t="s">
+      <c r="J96" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K96" s="44" t="s">
-        <v>41</v>
+      <c r="K96" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="L96" s="4">
-        <v>1016</v>
-      </c>
-      <c r="M96" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N96" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O96" s="45" t="s">
+        <v>3015</v>
+      </c>
+      <c r="M96" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O96" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>179</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="113" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>102</v>
-      </c>
-      <c r="B97" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="5">
         <v>401</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="H97" s="85" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L97" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M97" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N97" s="23" t="s">
+      <c r="L97" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M97" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N97" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O97" s="30" t="s">
+      <c r="O97" s="32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>103</v>
-      </c>
-      <c r="B98" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="14"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="14"/>
+      <c r="AF97" s="14"/>
+      <c r="AG97" s="14"/>
+      <c r="AH97" s="14"/>
+      <c r="AI97" s="14"/>
+      <c r="AJ97" s="14"/>
+      <c r="AK97" s="14"/>
+      <c r="AL97" s="14"/>
+      <c r="AM97" s="14"/>
+      <c r="AN97" s="14"/>
+      <c r="AO97" s="14"/>
+      <c r="AP97" s="14"/>
+      <c r="AQ97" s="14"/>
+      <c r="AR97" s="14"/>
+      <c r="AS97" s="14"/>
+      <c r="AT97" s="14"/>
+      <c r="AU97" s="14"/>
+      <c r="AV97" s="14"/>
+      <c r="AW97" s="14"/>
+      <c r="AX97" s="14"/>
+      <c r="AY97" s="14"/>
+      <c r="AZ97" s="14"/>
+      <c r="BA97" s="14"/>
+      <c r="BB97" s="14"/>
+      <c r="BC97" s="14"/>
+      <c r="BD97" s="14"/>
+      <c r="BE97" s="14"/>
+      <c r="BF97" s="14"/>
+      <c r="BG97" s="14"/>
+      <c r="BH97" s="14"/>
+      <c r="BI97" s="14"/>
+      <c r="BJ97" s="14"/>
+      <c r="BK97" s="14"/>
+      <c r="BL97" s="14"/>
+      <c r="BM97" s="14"/>
+      <c r="BN97" s="14"/>
+    </row>
+    <row r="98" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+      <c r="AA98" s="13"/>
+      <c r="AB98" s="13"/>
+      <c r="AC98" s="13"/>
+      <c r="AD98" s="13"/>
+      <c r="AE98" s="13"/>
+      <c r="AF98" s="13"/>
+      <c r="AG98" s="13"/>
+      <c r="AH98" s="13"/>
+      <c r="AI98" s="13"/>
+      <c r="AJ98" s="13"/>
+      <c r="AK98" s="13"/>
+      <c r="AL98" s="13"/>
+      <c r="AM98" s="13"/>
+      <c r="AN98" s="13"/>
+      <c r="AO98" s="13"/>
+      <c r="AP98" s="13"/>
+      <c r="AQ98" s="13"/>
+      <c r="AR98" s="13"/>
+      <c r="AS98" s="13"/>
+      <c r="AT98" s="13"/>
+      <c r="AU98" s="13"/>
+      <c r="AV98" s="13"/>
+      <c r="AW98" s="13"/>
+      <c r="AX98" s="13"/>
+      <c r="AY98" s="13"/>
+      <c r="AZ98" s="13"/>
+      <c r="BA98" s="13"/>
+      <c r="BB98" s="13"/>
+      <c r="BC98" s="13"/>
+      <c r="BD98" s="13"/>
+      <c r="BE98" s="13"/>
+      <c r="BF98" s="13"/>
+      <c r="BG98" s="13"/>
+      <c r="BH98" s="13"/>
+      <c r="BI98" s="13"/>
+      <c r="BJ98" s="13"/>
+      <c r="BK98" s="13"/>
+      <c r="BL98" s="13"/>
+      <c r="BM98" s="13"/>
+    </row>
+    <row r="99" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="103"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="103"/>
+      <c r="J99" s="103"/>
+      <c r="K99" s="103"/>
+      <c r="L99" s="103"/>
+      <c r="M99" s="103"/>
+      <c r="N99" s="103"/>
+      <c r="O99" s="103"/>
+    </row>
+    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A100" s="44">
+        <v>146</v>
+      </c>
+      <c r="B100" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E100" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F100" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G98" s="16">
-        <v>401</v>
-      </c>
-      <c r="H98" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L98" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M98" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N98" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O98" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>105</v>
-      </c>
-      <c r="B99" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="4">
-        <v>301</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" s="16">
+      <c r="G100" s="44">
         <v>403</v>
       </c>
-      <c r="H99" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L99" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M99" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N99" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O99" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>106</v>
-      </c>
-      <c r="B100" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="4">
-        <v>301</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G100" s="16">
-        <v>400</v>
-      </c>
-      <c r="H100" s="35" t="s">
+      <c r="H100" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L100" s="5">
-        <v>1004</v>
-      </c>
-      <c r="M100" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="N100" s="22" t="s">
+      <c r="K100" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1016</v>
+      </c>
+      <c r="M100" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O100" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O100" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:66" ht="63" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>55</v>
+        <v>168</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>36</v>
@@ -27841,7 +28114,7 @@
         <v>37</v>
       </c>
       <c r="G101" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H101" s="35" t="s">
         <v>38</v>
@@ -27853,42 +28126,42 @@
         <v>40</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L101" s="5">
-        <v>1015</v>
-      </c>
-      <c r="M101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N101" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N101" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D102" s="54">
-        <v>302</v>
-      </c>
-      <c r="E102" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="4">
-        <v>403</v>
+      <c r="G102" s="16">
+        <v>401</v>
       </c>
       <c r="H102" s="35" t="s">
         <v>38</v>
@@ -27896,37 +28169,37 @@
       <c r="I102" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J102" s="54" t="s">
+      <c r="J102" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L102" s="54">
-        <v>1006</v>
-      </c>
-      <c r="M102" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N102" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O102" s="55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O102" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>59</v>
+        <v>168</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D103" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>37</v>
@@ -27950,30 +28223,30 @@
         <v>47</v>
       </c>
       <c r="L103" s="5">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O103" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D104" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>37</v>
@@ -27982,7 +28255,7 @@
         <v>37</v>
       </c>
       <c r="G104" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H104" s="35" t="s">
         <v>38</v>
@@ -27994,33 +28267,33 @@
         <v>40</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L104" s="5">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O104" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" s="4">
-        <v>302</v>
+        <v>55</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>37</v>
@@ -28041,41 +28314,41 @@
         <v>40</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L105" s="5">
-        <v>5001</v>
+        <v>1015</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O105" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D106" s="4">
+        <v>168</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="54">
         <v>302</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="4">
         <v>403</v>
       </c>
       <c r="H106" s="35" t="s">
@@ -28084,371 +28357,697 @@
       <c r="I106" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L106" s="5">
-        <v>1011</v>
+        <v>51</v>
+      </c>
+      <c r="L106" s="54">
+        <v>1006</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O106" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" s="16">
-        <v>305</v>
-      </c>
-      <c r="E107" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="4">
+        <v>302</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="16" t="s">
+      <c r="F107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="26">
-        <v>400</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="G107" s="16">
+        <v>403</v>
+      </c>
+      <c r="H107" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K107" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L107" s="17">
-        <v>1009</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N107" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O107" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L107" s="5">
+        <v>1007</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N107" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" s="16">
-        <v>305</v>
-      </c>
-      <c r="E108" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="4">
+        <v>302</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G108" s="26">
-        <v>400</v>
-      </c>
-      <c r="H108" s="4" t="s">
+      <c r="G108" s="16">
+        <v>403</v>
+      </c>
+      <c r="H108" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J108" s="16" t="s">
+      <c r="J108" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K108" s="16" t="s">
-        <v>51</v>
+      <c r="K108" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="L108" s="5">
-        <v>3002</v>
-      </c>
-      <c r="M108" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="N108" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O108" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="M108" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N108" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="4">
+        <v>302</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F109" s="16" t="s">
+      <c r="F109" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G109" s="26">
-        <v>400</v>
-      </c>
-      <c r="H109" s="4" t="s">
+      <c r="G109" s="16">
+        <v>403</v>
+      </c>
+      <c r="H109" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I109" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J109" s="16" t="s">
+      <c r="J109" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K109" s="16" t="s">
+      <c r="K109" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L109" s="5">
+        <v>5001</v>
+      </c>
+      <c r="M109" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N109" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O109" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>111</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="4">
+        <v>302</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="16">
+        <v>403</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L110" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M110" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N110" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O110" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>17</v>
+      </c>
+      <c r="B111" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="16">
+        <v>305</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" s="26">
+        <v>400</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L109" s="18">
+      <c r="L111" s="17">
+        <v>1009</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N111" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O111" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>112</v>
+      </c>
+      <c r="B112" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="16">
+        <v>305</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" s="26">
+        <v>400</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L112" s="5">
+        <v>3002</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O112" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>113</v>
+      </c>
+      <c r="B113" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="26">
+        <v>400</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L113" s="18">
         <v>3003</v>
       </c>
-      <c r="M109" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="N109" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O109" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="13"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="13"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="13"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-      <c r="O119" s="13"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="13"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M113" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N113" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O113" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>180</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="5">
+        <v>401</v>
+      </c>
+      <c r="H114" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K114" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L114" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M114" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N114" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O114" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="14"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="14"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="14"/>
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AC114" s="14"/>
+      <c r="AD114" s="14"/>
+      <c r="AE114" s="14"/>
+      <c r="AF114" s="14"/>
+      <c r="AG114" s="14"/>
+      <c r="AH114" s="14"/>
+      <c r="AI114" s="14"/>
+      <c r="AJ114" s="14"/>
+      <c r="AK114" s="14"/>
+      <c r="AL114" s="14"/>
+      <c r="AM114" s="14"/>
+      <c r="AN114" s="14"/>
+      <c r="AO114" s="14"/>
+      <c r="AP114" s="14"/>
+      <c r="AQ114" s="14"/>
+      <c r="AR114" s="14"/>
+      <c r="AS114" s="14"/>
+      <c r="AT114" s="14"/>
+      <c r="AU114" s="14"/>
+      <c r="AV114" s="14"/>
+      <c r="AW114" s="14"/>
+      <c r="AX114" s="14"/>
+      <c r="AY114" s="14"/>
+      <c r="AZ114" s="14"/>
+      <c r="BA114" s="14"/>
+      <c r="BB114" s="14"/>
+      <c r="BC114" s="14"/>
+      <c r="BD114" s="14"/>
+      <c r="BE114" s="14"/>
+      <c r="BF114" s="14"/>
+      <c r="BG114" s="14"/>
+      <c r="BH114" s="14"/>
+      <c r="BI114" s="14"/>
+      <c r="BJ114" s="14"/>
+      <c r="BK114" s="14"/>
+      <c r="BL114" s="14"/>
+      <c r="BM114" s="14"/>
+      <c r="BN114" s="14"/>
+    </row>
+    <row r="115" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="112"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="112"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="112"/>
+      <c r="G115" s="112"/>
+      <c r="H115" s="112"/>
+      <c r="I115" s="112"/>
+      <c r="J115" s="112"/>
+      <c r="K115" s="112"/>
+      <c r="L115" s="112"/>
+      <c r="M115" s="112"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="112"/>
+    </row>
+    <row r="116" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="110"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="110"/>
+      <c r="J116" s="110"/>
+      <c r="K116" s="110"/>
+      <c r="L116" s="110"/>
+      <c r="M116" s="110"/>
+      <c r="N116" s="110"/>
+      <c r="O116" s="111"/>
+    </row>
+    <row r="117" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>163</v>
+      </c>
+      <c r="B117" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="4">
+        <v>17</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="16">
+        <v>200</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L117" s="5">
+        <v>2603</v>
+      </c>
+      <c r="M117" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O117" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>164</v>
+      </c>
+      <c r="B118" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="16">
+        <v>200</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L118" s="5">
+        <v>2604</v>
+      </c>
+      <c r="M118" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="N118" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O118" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="110"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="110"/>
+      <c r="J119" s="110"/>
+      <c r="K119" s="110"/>
+      <c r="L119" s="110"/>
+      <c r="M119" s="110"/>
+      <c r="N119" s="110"/>
+      <c r="O119" s="111"/>
+    </row>
+    <row r="120" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>163</v>
+      </c>
+      <c r="B120" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120" s="4">
+        <v>17</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="16">
+        <v>200</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L120" s="5">
+        <v>2603</v>
+      </c>
+      <c r="M120" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N120" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O120" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>164</v>
+      </c>
+      <c r="B121" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" s="16">
+        <v>200</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L121" s="5">
+        <v>2604</v>
+      </c>
+      <c r="M121" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="N121" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O121" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="13"/>
       <c r="C122" s="52"/>
@@ -28465,7 +29064,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="13"/>
       <c r="C123" s="52"/>
@@ -28482,7 +29081,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="13"/>
       <c r="C124" s="52"/>
@@ -28499,7 +29098,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="52"/>
@@ -28516,7 +29115,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="13"/>
       <c r="C126" s="52"/>
@@ -28533,7 +29132,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="52"/>
@@ -28550,7 +29149,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="13"/>
       <c r="C128" s="52"/>
@@ -32191,6 +32790,7 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="13"/>
+      <c r="C342" s="52"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
@@ -32204,32 +32804,174 @@
       <c r="N342" s="13"/>
       <c r="O342" s="13"/>
     </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A343" s="12"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="52"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="27"/>
+      <c r="H343" s="27"/>
+      <c r="I343" s="27"/>
+      <c r="J343" s="12"/>
+      <c r="K343" s="12"/>
+      <c r="L343" s="12"/>
+      <c r="M343" s="13"/>
+      <c r="N343" s="13"/>
+      <c r="O343" s="13"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A344" s="12"/>
+      <c r="B344" s="13"/>
+      <c r="C344" s="52"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="27"/>
+      <c r="H344" s="27"/>
+      <c r="I344" s="27"/>
+      <c r="J344" s="12"/>
+      <c r="K344" s="12"/>
+      <c r="L344" s="12"/>
+      <c r="M344" s="13"/>
+      <c r="N344" s="13"/>
+      <c r="O344" s="13"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A345" s="12"/>
+      <c r="B345" s="13"/>
+      <c r="C345" s="52"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+      <c r="G345" s="27"/>
+      <c r="H345" s="27"/>
+      <c r="I345" s="27"/>
+      <c r="J345" s="12"/>
+      <c r="K345" s="12"/>
+      <c r="L345" s="12"/>
+      <c r="M345" s="13"/>
+      <c r="N345" s="13"/>
+      <c r="O345" s="13"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A346" s="12"/>
+      <c r="B346" s="13"/>
+      <c r="C346" s="52"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="27"/>
+      <c r="H346" s="27"/>
+      <c r="I346" s="27"/>
+      <c r="J346" s="12"/>
+      <c r="K346" s="12"/>
+      <c r="L346" s="12"/>
+      <c r="M346" s="13"/>
+      <c r="N346" s="13"/>
+      <c r="O346" s="13"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A347" s="12"/>
+      <c r="B347" s="13"/>
+      <c r="C347" s="52"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="27"/>
+      <c r="H347" s="27"/>
+      <c r="I347" s="27"/>
+      <c r="J347" s="12"/>
+      <c r="K347" s="12"/>
+      <c r="L347" s="12"/>
+      <c r="M347" s="13"/>
+      <c r="N347" s="13"/>
+      <c r="O347" s="13"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A348" s="12"/>
+      <c r="B348" s="13"/>
+      <c r="C348" s="52"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="27"/>
+      <c r="H348" s="27"/>
+      <c r="I348" s="27"/>
+      <c r="J348" s="12"/>
+      <c r="K348" s="12"/>
+      <c r="L348" s="12"/>
+      <c r="M348" s="13"/>
+      <c r="N348" s="13"/>
+      <c r="O348" s="13"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A349" s="12"/>
+      <c r="B349" s="13"/>
+      <c r="C349" s="52"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+      <c r="G349" s="27"/>
+      <c r="H349" s="27"/>
+      <c r="I349" s="27"/>
+      <c r="J349" s="12"/>
+      <c r="K349" s="12"/>
+      <c r="L349" s="12"/>
+      <c r="M349" s="13"/>
+      <c r="N349" s="13"/>
+      <c r="O349" s="13"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A350" s="12"/>
+      <c r="B350" s="13"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="27"/>
+      <c r="H350" s="27"/>
+      <c r="I350" s="27"/>
+      <c r="J350" s="12"/>
+      <c r="K350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="13"/>
+      <c r="N350" s="13"/>
+      <c r="O350" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A62:O62"/>
+  <mergeCells count="14">
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A80:O80"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="A81:O81"/>
+    <mergeCell ref="A64:O64"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A20:O20"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A94:O94"/>
-    <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A78:O78"/>
+    <mergeCell ref="A49:O49"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L61 L11:L15 L72:L76 L23:L24 L31:L32 L17:L18 L7:L9 L68:L70 L53:L55 L26:L29 L86:L89 L103:L108 L82:L84 L99:L101 L92" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:L18 L11:L15 L58:L62 L24:L25 L32:L33 L95 L7:L9 L70:L72 L54:L56 L27:L30 L89:L92 L107:L112 L85:L87 L103:L105 L74:L78" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K23:K45 K82:K84 K103:K109 K99:K101 K86:K93" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K18 K58:K62 K70:K72 K7:K9 K54:K56 K117:K118 K24:K46 K85:K87 K89:K96 K103:K105 K74:K78 K120:K121 K107:K113" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J23:J45 J82:J84 J103:J109 J99:J101 J86:J93" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J18 J58:J62 J70:J72 J7:J9 J54:J56 J117:J118 J24:J46 J85:J87 J89:J96 J103:J105 J74:J78 J120:J121 J107:J113" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C39" location="ERR_Validation!A110" display="See Appendix A below for allowable amounts for specific years" xr:uid="{3145707C-310F-4C9A-8CC0-DFECAB116321}"/>
+    <hyperlink ref="C40" location="ERR_Validation!A110" display="See Appendix A below for allowable number of submissions for specific years" xr:uid="{A42FA457-322D-4341-9479-FD182D7DF9D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -32456,15 +33198,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
@@ -32516,6 +33249,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
@@ -32535,14 +33277,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -32550,4 +33284,12 @@
     <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7931D-866E-47F2-B084-BFE7A5D45828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB84FC9-6ADA-4E37-AB1B-4FE8806990BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="205">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -414,9 +414,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>T and S can for site based employees can  not exceed 8716.80 (181.60 x 48). (value may change in future)</t>
-  </si>
-  <si>
     <t>Date can not be before 01/01/24</t>
   </si>
   <si>
@@ -662,6 +659,12 @@
   </si>
   <si>
     <t>Unauthorised request: Invalid ROS Digital Certificate provided.</t>
+  </si>
+  <si>
+    <t>T and S can for site based employees can  not exceed 8720.64 (181.68 x 48). (value may change in future)</t>
+  </si>
+  <si>
+    <t>Updated validation rule</t>
   </si>
 </sst>
 </file>
@@ -1308,6 +1311,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,6 +1334,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1355,21 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1463,8 +1466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10499271" y="47625"/>
-          <a:ext cx="0" cy="923925"/>
+          <a:off x="11000468" y="47625"/>
+          <a:ext cx="3175" cy="878568"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -22037,34 +22040,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="13.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.1796875" style="7"/>
+    <col min="2" max="2" width="13.26953125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="51.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
@@ -22078,7 +22083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>0.1</v>
       </c>
@@ -22088,7 +22093,7 @@
       </c>
       <c r="E12" s="63"/>
     </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>0.11</v>
       </c>
@@ -22102,8 +22107,8 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="94">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="95">
         <v>0.12</v>
       </c>
       <c r="C14" s="71">
@@ -22112,79 +22117,79 @@
       <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="98">
         <v>45218</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="96"/>
       <c r="C15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="98"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
+      <c r="E15" s="99"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="96"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="98"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="95"/>
+      <c r="E16" s="99"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="96"/>
       <c r="C17" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="98"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="96"/>
+      <c r="E17" s="99"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="97"/>
       <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="99"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="59">
         <v>0.13</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="70">
         <v>45272</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="59">
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>186</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>187</v>
       </c>
       <c r="E20" s="88">
         <v>45371</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="21">
         <v>0.15</v>
       </c>
@@ -22192,13 +22197,13 @@
         <v>173</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="70">
         <v>45373</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="21">
         <v>0.16</v>
       </c>
@@ -22206,297 +22211,305 @@
         <v>38</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22" s="70">
         <v>45582</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" s="34">
         <v>39</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23" s="70">
         <v>45582</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="21">
         <v>0.17</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="70">
         <v>45635</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="C25" s="34">
+        <v>165</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="70">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="64"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="63"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="21"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="63"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="21"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="63"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="21"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="63"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="21"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="63"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="63"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="60"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="65"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="61"/>
       <c r="C34" s="37"/>
       <c r="D34" s="39"/>
       <c r="E34" s="66"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="61"/>
       <c r="C35" s="38"/>
       <c r="D35" s="39"/>
       <c r="E35" s="66"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="61"/>
       <c r="C36" s="38"/>
       <c r="D36" s="39"/>
       <c r="E36" s="66"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="61"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
       <c r="E37" s="66"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="61"/>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
       <c r="E38" s="66"/>
     </row>
-    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="61"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="61"/>
       <c r="C40" s="38"/>
       <c r="D40" s="39"/>
       <c r="E40" s="67"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="61"/>
       <c r="C41" s="38"/>
       <c r="D41" s="39"/>
       <c r="E41" s="66"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="61"/>
       <c r="C42" s="38"/>
       <c r="D42" s="39"/>
       <c r="E42" s="66"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="61"/>
       <c r="C43" s="72"/>
       <c r="D43" s="39"/>
       <c r="E43" s="66"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="61"/>
       <c r="C44" s="38"/>
       <c r="D44" s="39"/>
       <c r="E44" s="66"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="61"/>
       <c r="C45" s="38"/>
       <c r="D45" s="39"/>
       <c r="E45" s="67"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="61"/>
       <c r="C46" s="46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="66"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="61"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
       <c r="E47" s="66"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="61"/>
       <c r="C48" s="38"/>
       <c r="D48" s="39"/>
       <c r="E48" s="66"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="62"/>
       <c r="C49" s="73"/>
       <c r="D49" s="36"/>
       <c r="E49" s="65"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="61"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
       <c r="E50" s="66"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="61"/>
       <c r="C51" s="38"/>
       <c r="D51" s="39"/>
       <c r="E51" s="66"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="61"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
       <c r="E52" s="66"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="61"/>
       <c r="C53" s="38"/>
       <c r="D53" s="39"/>
       <c r="E53" s="67"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="61"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
       <c r="E54" s="66"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="61"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
       <c r="E55" s="66"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="61"/>
       <c r="C56" s="38"/>
       <c r="D56" s="39"/>
       <c r="E56" s="66"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="61"/>
       <c r="C57" s="38"/>
       <c r="D57" s="39"/>
       <c r="E57" s="66"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="61"/>
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
       <c r="E58" s="66"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="61"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
       <c r="E59" s="66"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="61"/>
       <c r="C60" s="38"/>
       <c r="D60" s="39"/>
       <c r="E60" s="66"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="61"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
       <c r="E61" s="66"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="61"/>
       <c r="C62" s="38"/>
       <c r="D62" s="39"/>
       <c r="E62" s="66"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="61"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
       <c r="E63" s="66"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="61"/>
       <c r="C64" s="38"/>
       <c r="D64" s="39"/>
       <c r="E64" s="66"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="61"/>
       <c r="C65" s="38"/>
       <c r="D65" s="39"/>
       <c r="E65" s="67"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="61"/>
       <c r="C66" s="38"/>
       <c r="D66" s="39"/>
       <c r="E66" s="66"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="61"/>
       <c r="C67" s="38"/>
       <c r="D67" s="39"/>
       <c r="E67" s="66"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="61"/>
       <c r="C68" s="38"/>
       <c r="D68" s="39"/>
@@ -22521,26 +22534,28 @@
   </sheetPr>
   <dimension ref="A1:BN350"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="C35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="6" customWidth="1"/>
     <col min="3" max="3" width="44" style="53" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.42578125" style="6" customWidth="1"/>
+    <col min="4" max="6" width="10.7265625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.26953125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.453125" style="6" customWidth="1"/>
     <col min="14" max="14" width="28" style="6" customWidth="1"/>
     <col min="15" max="15" width="30" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="14"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.1796875" style="14"/>
+    <col min="17" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
@@ -22588,47 +22603,47 @@
       </c>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="110"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44">
         <v>146</v>
       </c>
@@ -22676,7 +22691,7 @@
       </c>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" ht="62" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -22724,7 +22739,7 @@
       </c>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -22772,7 +22787,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -22819,7 +22834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -22866,7 +22881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>77</v>
       </c>
@@ -22962,7 +22977,7 @@
       <c r="BL9" s="14"/>
       <c r="BM9" s="14"/>
     </row>
-    <row r="10" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>116</v>
       </c>
@@ -23009,7 +23024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -23056,7 +23071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -23103,7 +23118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -23150,7 +23165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -23197,7 +23212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -23244,7 +23259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>100</v>
       </c>
@@ -23291,7 +23306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -23338,7 +23353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>144</v>
       </c>
@@ -23386,7 +23401,7 @@
       </c>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>176</v>
       </c>
@@ -23394,9 +23409,9 @@
         <v>34</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="93" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -23424,7 +23439,7 @@
         <v>1014</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N19" s="32" t="s">
         <v>36</v>
@@ -23483,27 +23498,27 @@
       <c r="BM19" s="14"/>
       <c r="BN19" s="14"/>
     </row>
-    <row r="20" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+    <row r="20" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="109"/>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>152</v>
       </c>
@@ -23551,7 +23566,7 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>153</v>
       </c>
@@ -23599,7 +23614,7 @@
       </c>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>126</v>
       </c>
@@ -23646,7 +23661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -23693,7 +23708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>97</v>
       </c>
@@ -23740,7 +23755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>143</v>
       </c>
@@ -23788,7 +23803,7 @@
       </c>
       <c r="P26" s="24"/>
     </row>
-    <row r="27" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>20</v>
       </c>
@@ -23835,7 +23850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -23882,7 +23897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -23929,7 +23944,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -23976,7 +23991,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
         <v>134</v>
       </c>
@@ -24023,7 +24038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -24070,7 +24085,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>42</v>
       </c>
@@ -24117,7 +24132,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>51</v>
       </c>
@@ -24164,7 +24179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>160</v>
       </c>
@@ -24211,7 +24226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>161</v>
       </c>
@@ -24258,7 +24273,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>162</v>
       </c>
@@ -24305,7 +24320,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>168</v>
       </c>
@@ -24352,7 +24367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>163</v>
       </c>
@@ -24360,7 +24375,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" s="4">
         <v>17</v>
@@ -24390,7 +24405,7 @@
         <v>2603</v>
       </c>
       <c r="M39" s="91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>77</v>
@@ -24399,7 +24414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>164</v>
       </c>
@@ -24407,7 +24422,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>36</v>
@@ -24437,7 +24452,7 @@
         <v>2604</v>
       </c>
       <c r="M40" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>77</v>
@@ -24446,7 +24461,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>165</v>
       </c>
@@ -24454,7 +24469,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>36</v>
@@ -24493,7 +24508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>166</v>
       </c>
@@ -24501,7 +24516,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -24531,7 +24546,7 @@
         <v>2606</v>
       </c>
       <c r="M42" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>77</v>
@@ -24540,7 +24555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>167</v>
       </c>
@@ -24548,7 +24563,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>36</v>
@@ -24587,7 +24602,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>170</v>
       </c>
@@ -24595,7 +24610,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="4">
         <v>19</v>
@@ -24625,7 +24640,7 @@
         <v>2609</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>77</v>
@@ -24634,7 +24649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>171</v>
       </c>
@@ -24642,7 +24657,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>36</v>
@@ -24672,7 +24687,7 @@
         <v>2610</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>77</v>
@@ -24681,7 +24696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="75">
         <v>172</v>
       </c>
@@ -24689,7 +24704,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="75" t="s">
         <v>36</v>
@@ -24719,7 +24734,7 @@
         <v>2611</v>
       </c>
       <c r="M46" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" s="81" t="s">
         <v>77</v>
@@ -24728,7 +24743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="82">
         <v>174</v>
       </c>
@@ -24736,7 +24751,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" s="82" t="s">
         <v>36</v>
@@ -24766,64 +24781,64 @@
         <v>2614</v>
       </c>
       <c r="M47" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N47" s="83" t="s">
         <v>77</v>
       </c>
       <c r="O47" s="83" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="107"/>
-      <c r="O48" s="108"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="113"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+    <row r="49" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="104"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="109"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A50" s="44">
         <v>148</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>36</v>
@@ -24853,22 +24868,22 @@
         <v>1111</v>
       </c>
       <c r="M50" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="N50" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="O50" s="22" t="s">
         <v>58</v>
       </c>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="44">
         <v>146</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="45" t="s">
         <v>35</v>
@@ -24911,12 +24926,12 @@
       </c>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="62" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>52</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>43</v>
@@ -24959,12 +24974,12 @@
       </c>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>53</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>45</v>
@@ -25007,12 +25022,12 @@
       </c>
       <c r="P53" s="13"/>
     </row>
-    <row r="54" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>55</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>46</v>
@@ -25045,24 +25060,24 @@
         <v>1003</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N54" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O54" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>56</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>36</v>
@@ -25092,21 +25107,21 @@
         <v>1004</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N55" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O55" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>77</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>53</v>
@@ -25197,12 +25212,12 @@
       <c r="BL56" s="14"/>
       <c r="BM56" s="14"/>
     </row>
-    <row r="57" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>117</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>55</v>
@@ -25244,12 +25259,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>56</v>
@@ -25285,18 +25300,18 @@
         <v>57</v>
       </c>
       <c r="N58" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O58" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>59</v>
@@ -25332,21 +25347,21 @@
         <v>60</v>
       </c>
       <c r="N59" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O59" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>36</v>
@@ -25379,18 +25394,18 @@
         <v>62</v>
       </c>
       <c r="N60" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O60" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>63</v>
@@ -25426,21 +25441,21 @@
         <v>64</v>
       </c>
       <c r="N61" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O61" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>36</v>
@@ -25470,7 +25485,7 @@
         <v>2501</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>67</v>
@@ -25479,17 +25494,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>177</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="93" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -25517,7 +25532,7 @@
         <v>1014</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N63" s="32" t="s">
         <v>36</v>
@@ -25576,55 +25591,55 @@
       <c r="BM63" s="14"/>
       <c r="BN63" s="14"/>
     </row>
-    <row r="64" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="101"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="105"/>
+    <row r="64" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="110"/>
       <c r="P64" s="13"/>
     </row>
-    <row r="65" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
+    <row r="65" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="104"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="109"/>
       <c r="P65" s="13"/>
     </row>
-    <row r="66" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="44">
         <v>148</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>36</v>
@@ -25654,22 +25669,22 @@
         <v>1111</v>
       </c>
       <c r="M66" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="N66" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="N66" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="O66" s="22" t="s">
         <v>58</v>
       </c>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="44">
         <v>146</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="45" t="s">
         <v>35</v>
@@ -25712,12 +25727,12 @@
       </c>
       <c r="P67" s="13"/>
     </row>
-    <row r="68" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" ht="62" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>62</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>43</v>
@@ -25760,12 +25775,12 @@
       </c>
       <c r="P68" s="13"/>
     </row>
-    <row r="69" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>63</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>45</v>
@@ -25808,12 +25823,12 @@
       </c>
       <c r="P69" s="13"/>
     </row>
-    <row r="70" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>65</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>46</v>
@@ -25849,21 +25864,21 @@
         <v>48</v>
       </c>
       <c r="N70" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>66</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>36</v>
@@ -25896,18 +25911,18 @@
         <v>52</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O71" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>77</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>53</v>
@@ -25998,12 +26013,12 @@
       <c r="BL72" s="14"/>
       <c r="BM72" s="14"/>
     </row>
-    <row r="73" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>118</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>55</v>
@@ -26045,12 +26060,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>67</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>56</v>
@@ -26086,18 +26101,18 @@
         <v>57</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O74" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>68</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>59</v>
@@ -26133,18 +26148,18 @@
         <v>60</v>
       </c>
       <c r="N75" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O75" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>69</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>61</v>
@@ -26177,21 +26192,21 @@
         <v>1008</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N76" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O76" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>70</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>63</v>
@@ -26227,21 +26242,21 @@
         <v>64</v>
       </c>
       <c r="N77" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O77" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>71</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>36</v>
@@ -26271,26 +26286,26 @@
         <v>2506</v>
       </c>
       <c r="M78" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O78" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="N78" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O78" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>178</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="93" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -26318,7 +26333,7 @@
         <v>1014</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N79" s="32" t="s">
         <v>36</v>
@@ -26377,24 +26392,24 @@
       <c r="BM79" s="14"/>
       <c r="BN79" s="14"/>
     </row>
-    <row r="80" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="101"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="101"/>
-      <c r="K80" s="101"/>
-      <c r="L80" s="101"/>
-      <c r="M80" s="101"/>
-      <c r="N80" s="101"/>
-      <c r="O80" s="101"/>
+    <row r="80" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="106"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
+      <c r="I80" s="106"/>
+      <c r="J80" s="106"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="106"/>
+      <c r="M80" s="106"/>
+      <c r="N80" s="106"/>
+      <c r="O80" s="106"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
@@ -26446,24 +26461,24 @@
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
     </row>
-    <row r="81" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="102" t="s">
+    <row r="81" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="103"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="103"/>
-      <c r="L81" s="103"/>
-      <c r="M81" s="103"/>
-      <c r="N81" s="103"/>
-      <c r="O81" s="103"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="108"/>
+      <c r="N81" s="108"/>
+      <c r="O81" s="108"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
@@ -26515,12 +26530,12 @@
       <c r="BL81" s="13"/>
       <c r="BM81" s="13"/>
     </row>
-    <row r="82" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:65" s="6" customFormat="1" ht="40.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A82" s="44">
         <v>146</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="45" t="s">
         <v>35</v>
@@ -26612,12 +26627,12 @@
       <c r="BL82" s="13"/>
       <c r="BM82" s="13"/>
     </row>
-    <row r="83" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:65" s="6" customFormat="1" ht="62" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>72</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>43</v>
@@ -26709,12 +26724,12 @@
       <c r="BL83" s="13"/>
       <c r="BM83" s="13"/>
     </row>
-    <row r="84" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:65" s="6" customFormat="1" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>73</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>45</v>
@@ -26806,12 +26821,12 @@
       <c r="BL84" s="13"/>
       <c r="BM84" s="13"/>
     </row>
-    <row r="85" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>75</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>46</v>
@@ -26844,10 +26859,10 @@
         <v>1003</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N85" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O85" s="22" t="s">
         <v>49</v>
@@ -26902,12 +26917,12 @@
       <c r="BL85" s="14"/>
       <c r="BM85" s="14"/>
     </row>
-    <row r="86" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>76</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>50</v>
@@ -26940,10 +26955,10 @@
         <v>1004</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N86" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O86" s="22" t="s">
         <v>49</v>
@@ -26998,12 +27013,12 @@
       <c r="BL86" s="14"/>
       <c r="BM86" s="14"/>
     </row>
-    <row r="87" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>77</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>53</v>
@@ -27039,7 +27054,7 @@
         <v>54</v>
       </c>
       <c r="N87" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O87" s="22" t="s">
         <v>49</v>
@@ -27094,12 +27109,12 @@
       <c r="BL87" s="14"/>
       <c r="BM87" s="14"/>
     </row>
-    <row r="88" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:65" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>119</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>55</v>
@@ -27190,12 +27205,12 @@
       <c r="BL88" s="14"/>
       <c r="BM88" s="14"/>
     </row>
-    <row r="89" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>78</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>56</v>
@@ -27231,7 +27246,7 @@
         <v>57</v>
       </c>
       <c r="N89" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O89" s="22" t="s">
         <v>58</v>
@@ -27286,12 +27301,12 @@
       <c r="BL89" s="14"/>
       <c r="BM89" s="14"/>
     </row>
-    <row r="90" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>79</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>59</v>
@@ -27327,7 +27342,7 @@
         <v>60</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O90" s="22" t="s">
         <v>58</v>
@@ -27382,12 +27397,12 @@
       <c r="BL90" s="14"/>
       <c r="BM90" s="14"/>
     </row>
-    <row r="91" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>80</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>61</v>
@@ -27420,10 +27435,10 @@
         <v>1008</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O91" s="22" t="s">
         <v>58</v>
@@ -27478,15 +27493,15 @@
       <c r="BL91" s="14"/>
       <c r="BM91" s="14"/>
     </row>
-    <row r="92" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>81</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>36</v>
@@ -27519,7 +27534,7 @@
         <v>64</v>
       </c>
       <c r="N92" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O92" s="22" t="s">
         <v>36</v>
@@ -27574,15 +27589,15 @@
       <c r="BL92" s="14"/>
       <c r="BM92" s="14"/>
     </row>
-    <row r="93" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>169</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>36</v>
@@ -27612,13 +27627,13 @@
         <v>3101</v>
       </c>
       <c r="M93" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O93" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="N93" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O93" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="P93" s="13"/>
       <c r="Q93" s="13"/>
@@ -27671,15 +27686,15 @@
       <c r="BL93" s="13"/>
       <c r="BM93" s="13"/>
     </row>
-    <row r="94" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:65" s="6" customFormat="1" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A94" s="35">
         <v>156</v>
       </c>
       <c r="B94" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="35" t="s">
         <v>36</v>
@@ -27709,13 +27724,13 @@
         <v>3014</v>
       </c>
       <c r="M94" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O94" s="58" t="s">
         <v>165</v>
-      </c>
-      <c r="N94" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O94" s="58" t="s">
-        <v>166</v>
       </c>
       <c r="P94" s="13"/>
       <c r="Q94" s="13"/>
@@ -27768,12 +27783,12 @@
       <c r="BL94" s="13"/>
       <c r="BM94" s="13"/>
     </row>
-    <row r="95" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>168</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>98</v>
@@ -27809,21 +27824,21 @@
         <v>99</v>
       </c>
       <c r="N95" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O95" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:65" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>175</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D96" s="35" t="s">
         <v>36</v>
@@ -27853,26 +27868,26 @@
         <v>3015</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N96" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>179</v>
       </c>
       <c r="B97" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D97" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="93" t="s">
         <v>36</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -27900,7 +27915,7 @@
         <v>1014</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N97" s="32" t="s">
         <v>36</v>
@@ -27959,24 +27974,24 @@
       <c r="BM97" s="14"/>
       <c r="BN97" s="14"/>
     </row>
-    <row r="98" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="101"/>
-      <c r="C98" s="101"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
-      <c r="H98" s="101"/>
-      <c r="I98" s="101"/>
-      <c r="J98" s="101"/>
-      <c r="K98" s="101"/>
-      <c r="L98" s="101"/>
-      <c r="M98" s="101"/>
-      <c r="N98" s="101"/>
-      <c r="O98" s="101"/>
+    <row r="98" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="106"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="106"/>
+      <c r="G98" s="106"/>
+      <c r="H98" s="106"/>
+      <c r="I98" s="106"/>
+      <c r="J98" s="106"/>
+      <c r="K98" s="106"/>
+      <c r="L98" s="106"/>
+      <c r="M98" s="106"/>
+      <c r="N98" s="106"/>
+      <c r="O98" s="106"/>
       <c r="P98" s="13"/>
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
@@ -28028,31 +28043,31 @@
       <c r="BL98" s="13"/>
       <c r="BM98" s="13"/>
     </row>
-    <row r="99" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="102" t="s">
+    <row r="99" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="103"/>
-      <c r="C99" s="103"/>
-      <c r="D99" s="103"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="103"/>
-      <c r="G99" s="103"/>
-      <c r="H99" s="103"/>
-      <c r="I99" s="103"/>
-      <c r="J99" s="103"/>
-      <c r="K99" s="103"/>
-      <c r="L99" s="103"/>
-      <c r="M99" s="103"/>
-      <c r="N99" s="103"/>
-      <c r="O99" s="103"/>
-    </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B99" s="108"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="108"/>
+      <c r="K99" s="108"/>
+      <c r="L99" s="108"/>
+      <c r="M99" s="108"/>
+      <c r="N99" s="108"/>
+      <c r="O99" s="108"/>
+    </row>
+    <row r="100" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A100" s="44">
         <v>146</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" s="45" t="s">
         <v>35</v>
@@ -28094,12 +28109,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:66" ht="63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" ht="62" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>102</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>43</v>
@@ -28141,12 +28156,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>103</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>45</v>
@@ -28188,12 +28203,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>105</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>46</v>
@@ -28226,7 +28241,7 @@
         <v>1003</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>42</v>
@@ -28235,12 +28250,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>106</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>50</v>
@@ -28273,7 +28288,7 @@
         <v>1004</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
@@ -28282,12 +28297,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>121</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>55</v>
@@ -28329,12 +28344,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>107</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>56</v>
@@ -28376,12 +28391,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>108</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>59</v>
@@ -28423,12 +28438,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>109</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>61</v>
@@ -28461,7 +28476,7 @@
         <v>1008</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>42</v>
@@ -28470,15 +28485,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:66" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>110</v>
       </c>
       <c r="B109" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D109" s="4">
         <v>302</v>
@@ -28508,7 +28523,7 @@
         <v>5001</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N109" s="22" t="s">
         <v>42</v>
@@ -28517,15 +28532,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>111</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" s="4">
         <v>302</v>
@@ -28564,12 +28579,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>17</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>72</v>
@@ -28605,21 +28620,21 @@
         <v>73</v>
       </c>
       <c r="N111" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O111" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>112</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D112" s="16">
         <v>305</v>
@@ -28649,24 +28664,24 @@
         <v>3002</v>
       </c>
       <c r="M112" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O112" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="N112" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="O112" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:66" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>113</v>
       </c>
       <c r="B113" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>36</v>
@@ -28696,26 +28711,26 @@
         <v>3003</v>
       </c>
       <c r="M113" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N113" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O113" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:66" ht="31" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>180</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D114" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D114" s="93" t="s">
         <v>36</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -28743,7 +28758,7 @@
         <v>1014</v>
       </c>
       <c r="M114" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N114" s="32" t="s">
         <v>36</v>
@@ -28802,45 +28817,45 @@
       <c r="BM114" s="14"/>
       <c r="BN114" s="14"/>
     </row>
-    <row r="115" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="112"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="112"/>
-      <c r="E115" s="112"/>
-      <c r="F115" s="112"/>
-      <c r="G115" s="112"/>
-      <c r="H115" s="112"/>
-      <c r="I115" s="112"/>
-      <c r="J115" s="112"/>
-      <c r="K115" s="112"/>
-      <c r="L115" s="112"/>
-      <c r="M115" s="112"/>
-      <c r="N115" s="112"/>
-      <c r="O115" s="112"/>
-    </row>
-    <row r="116" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="110"/>
-      <c r="C116" s="110"/>
-      <c r="D116" s="110"/>
-      <c r="E116" s="110"/>
-      <c r="F116" s="110"/>
-      <c r="G116" s="110"/>
-      <c r="H116" s="110"/>
-      <c r="I116" s="110"/>
-      <c r="J116" s="110"/>
-      <c r="K116" s="110"/>
-      <c r="L116" s="110"/>
-      <c r="M116" s="110"/>
-      <c r="N116" s="110"/>
-      <c r="O116" s="111"/>
-    </row>
-    <row r="117" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="104"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="104"/>
+      <c r="G115" s="104"/>
+      <c r="H115" s="104"/>
+      <c r="I115" s="104"/>
+      <c r="J115" s="104"/>
+      <c r="K115" s="104"/>
+      <c r="L115" s="104"/>
+      <c r="M115" s="104"/>
+      <c r="N115" s="104"/>
+      <c r="O115" s="104"/>
+    </row>
+    <row r="116" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" s="102"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="102"/>
+      <c r="F116" s="102"/>
+      <c r="G116" s="102"/>
+      <c r="H116" s="102"/>
+      <c r="I116" s="102"/>
+      <c r="J116" s="102"/>
+      <c r="K116" s="102"/>
+      <c r="L116" s="102"/>
+      <c r="M116" s="102"/>
+      <c r="N116" s="102"/>
+      <c r="O116" s="103"/>
+    </row>
+    <row r="117" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>163</v>
       </c>
@@ -28848,7 +28863,7 @@
         <v>34</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D117" s="4">
         <v>17</v>
@@ -28878,7 +28893,7 @@
         <v>2603</v>
       </c>
       <c r="M117" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N117" s="22" t="s">
         <v>77</v>
@@ -28887,7 +28902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>164</v>
       </c>
@@ -28895,7 +28910,7 @@
         <v>34</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>36</v>
@@ -28925,7 +28940,7 @@
         <v>2604</v>
       </c>
       <c r="M118" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>77</v>
@@ -28934,26 +28949,26 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="109" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="110"/>
-      <c r="C119" s="110"/>
-      <c r="D119" s="110"/>
-      <c r="E119" s="110"/>
-      <c r="F119" s="110"/>
-      <c r="G119" s="110"/>
-      <c r="H119" s="110"/>
-      <c r="I119" s="110"/>
-      <c r="J119" s="110"/>
-      <c r="K119" s="110"/>
-      <c r="L119" s="110"/>
-      <c r="M119" s="110"/>
-      <c r="N119" s="110"/>
-      <c r="O119" s="111"/>
-    </row>
-    <row r="120" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="102"/>
+      <c r="C119" s="102"/>
+      <c r="D119" s="102"/>
+      <c r="E119" s="102"/>
+      <c r="F119" s="102"/>
+      <c r="G119" s="102"/>
+      <c r="H119" s="102"/>
+      <c r="I119" s="102"/>
+      <c r="J119" s="102"/>
+      <c r="K119" s="102"/>
+      <c r="L119" s="102"/>
+      <c r="M119" s="102"/>
+      <c r="N119" s="102"/>
+      <c r="O119" s="103"/>
+    </row>
+    <row r="120" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>163</v>
       </c>
@@ -28961,7 +28976,7 @@
         <v>34</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D120" s="4">
         <v>17</v>
@@ -28991,7 +29006,7 @@
         <v>2603</v>
       </c>
       <c r="M120" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>77</v>
@@ -29000,7 +29015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>164</v>
       </c>
@@ -29008,7 +29023,7 @@
         <v>34</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>36</v>
@@ -29038,7 +29053,7 @@
         <v>2604</v>
       </c>
       <c r="M121" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N121" s="22" t="s">
         <v>77</v>
@@ -29047,7 +29062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A122" s="12"/>
       <c r="B122" s="13"/>
       <c r="C122" s="52"/>
@@ -29064,7 +29079,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
     </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A123" s="12"/>
       <c r="B123" s="13"/>
       <c r="C123" s="52"/>
@@ -29081,7 +29096,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A124" s="12"/>
       <c r="B124" s="13"/>
       <c r="C124" s="52"/>
@@ -29098,7 +29113,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="52"/>
@@ -29115,7 +29130,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
     </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A126" s="12"/>
       <c r="B126" s="13"/>
       <c r="C126" s="52"/>
@@ -29132,7 +29147,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
     </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="52"/>
@@ -29149,7 +29164,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A128" s="12"/>
       <c r="B128" s="13"/>
       <c r="C128" s="52"/>
@@ -29166,7 +29181,7 @@
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="12"/>
       <c r="B129" s="13"/>
       <c r="C129" s="52"/>
@@ -29183,7 +29198,7 @@
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="52"/>
@@ -29200,7 +29215,7 @@
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="52"/>
@@ -29217,7 +29232,7 @@
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="52"/>
@@ -29234,7 +29249,7 @@
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="12"/>
       <c r="B133" s="13"/>
       <c r="C133" s="52"/>
@@ -29251,7 +29266,7 @@
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="52"/>
@@ -29268,7 +29283,7 @@
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="12"/>
       <c r="B135" s="13"/>
       <c r="C135" s="52"/>
@@ -29285,7 +29300,7 @@
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="12"/>
       <c r="B136" s="13"/>
       <c r="C136" s="52"/>
@@ -29302,7 +29317,7 @@
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="52"/>
@@ -29319,7 +29334,7 @@
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="12"/>
       <c r="B138" s="13"/>
       <c r="C138" s="52"/>
@@ -29336,7 +29351,7 @@
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="12"/>
       <c r="B139" s="13"/>
       <c r="C139" s="52"/>
@@ -29353,7 +29368,7 @@
       <c r="N139" s="13"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="52"/>
@@ -29370,7 +29385,7 @@
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="52"/>
@@ -29387,7 +29402,7 @@
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="12"/>
       <c r="B142" s="13"/>
       <c r="C142" s="52"/>
@@ -29404,7 +29419,7 @@
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="12"/>
       <c r="B143" s="13"/>
       <c r="C143" s="52"/>
@@ -29421,7 +29436,7 @@
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="12"/>
       <c r="B144" s="13"/>
       <c r="C144" s="52"/>
@@ -29438,7 +29453,7 @@
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="12"/>
       <c r="B145" s="13"/>
       <c r="C145" s="52"/>
@@ -29455,7 +29470,7 @@
       <c r="N145" s="13"/>
       <c r="O145" s="13"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="12"/>
       <c r="B146" s="13"/>
       <c r="C146" s="52"/>
@@ -29472,7 +29487,7 @@
       <c r="N146" s="13"/>
       <c r="O146" s="13"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="12"/>
       <c r="B147" s="13"/>
       <c r="C147" s="52"/>
@@ -29489,7 +29504,7 @@
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="12"/>
       <c r="B148" s="13"/>
       <c r="C148" s="52"/>
@@ -29506,7 +29521,7 @@
       <c r="N148" s="13"/>
       <c r="O148" s="13"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="12"/>
       <c r="B149" s="13"/>
       <c r="C149" s="52"/>
@@ -29523,7 +29538,7 @@
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="12"/>
       <c r="B150" s="13"/>
       <c r="C150" s="52"/>
@@ -29540,7 +29555,7 @@
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="12"/>
       <c r="B151" s="13"/>
       <c r="C151" s="52"/>
@@ -29557,7 +29572,7 @@
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="12"/>
       <c r="B152" s="13"/>
       <c r="C152" s="52"/>
@@ -29574,7 +29589,7 @@
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="12"/>
       <c r="B153" s="13"/>
       <c r="C153" s="52"/>
@@ -29591,7 +29606,7 @@
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="12"/>
       <c r="B154" s="13"/>
       <c r="C154" s="52"/>
@@ -29608,7 +29623,7 @@
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="12"/>
       <c r="B155" s="13"/>
       <c r="C155" s="52"/>
@@ -29625,7 +29640,7 @@
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="12"/>
       <c r="B156" s="13"/>
       <c r="C156" s="52"/>
@@ -29642,7 +29657,7 @@
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="12"/>
       <c r="B157" s="13"/>
       <c r="C157" s="52"/>
@@ -29659,7 +29674,7 @@
       <c r="N157" s="13"/>
       <c r="O157" s="13"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="12"/>
       <c r="B158" s="13"/>
       <c r="C158" s="52"/>
@@ -29676,7 +29691,7 @@
       <c r="N158" s="13"/>
       <c r="O158" s="13"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="12"/>
       <c r="B159" s="13"/>
       <c r="C159" s="52"/>
@@ -29693,7 +29708,7 @@
       <c r="N159" s="13"/>
       <c r="O159" s="13"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="12"/>
       <c r="B160" s="13"/>
       <c r="C160" s="52"/>
@@ -29710,7 +29725,7 @@
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="12"/>
       <c r="B161" s="13"/>
       <c r="C161" s="52"/>
@@ -29727,7 +29742,7 @@
       <c r="N161" s="13"/>
       <c r="O161" s="13"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="12"/>
       <c r="B162" s="13"/>
       <c r="C162" s="52"/>
@@ -29744,7 +29759,7 @@
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="12"/>
       <c r="B163" s="13"/>
       <c r="C163" s="52"/>
@@ -29761,7 +29776,7 @@
       <c r="N163" s="13"/>
       <c r="O163" s="13"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="12"/>
       <c r="B164" s="13"/>
       <c r="C164" s="52"/>
@@ -29778,7 +29793,7 @@
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="12"/>
       <c r="B165" s="13"/>
       <c r="C165" s="52"/>
@@ -29795,7 +29810,7 @@
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="12"/>
       <c r="B166" s="13"/>
       <c r="C166" s="52"/>
@@ -29812,7 +29827,7 @@
       <c r="N166" s="13"/>
       <c r="O166" s="13"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="12"/>
       <c r="B167" s="13"/>
       <c r="C167" s="52"/>
@@ -29829,7 +29844,7 @@
       <c r="N167" s="13"/>
       <c r="O167" s="13"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="12"/>
       <c r="B168" s="13"/>
       <c r="C168" s="52"/>
@@ -29846,7 +29861,7 @@
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="12"/>
       <c r="B169" s="13"/>
       <c r="C169" s="52"/>
@@ -29863,7 +29878,7 @@
       <c r="N169" s="13"/>
       <c r="O169" s="13"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="12"/>
       <c r="B170" s="13"/>
       <c r="C170" s="52"/>
@@ -29880,7 +29895,7 @@
       <c r="N170" s="13"/>
       <c r="O170" s="13"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="12"/>
       <c r="B171" s="13"/>
       <c r="C171" s="52"/>
@@ -29897,7 +29912,7 @@
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="12"/>
       <c r="B172" s="13"/>
       <c r="C172" s="52"/>
@@ -29914,7 +29929,7 @@
       <c r="N172" s="13"/>
       <c r="O172" s="13"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="12"/>
       <c r="B173" s="13"/>
       <c r="C173" s="52"/>
@@ -29931,7 +29946,7 @@
       <c r="N173" s="13"/>
       <c r="O173" s="13"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="12"/>
       <c r="B174" s="13"/>
       <c r="C174" s="52"/>
@@ -29948,7 +29963,7 @@
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="12"/>
       <c r="B175" s="13"/>
       <c r="C175" s="52"/>
@@ -29965,7 +29980,7 @@
       <c r="N175" s="13"/>
       <c r="O175" s="13"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="12"/>
       <c r="B176" s="13"/>
       <c r="C176" s="52"/>
@@ -29982,7 +29997,7 @@
       <c r="N176" s="13"/>
       <c r="O176" s="13"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="12"/>
       <c r="B177" s="13"/>
       <c r="C177" s="52"/>
@@ -29999,7 +30014,7 @@
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="12"/>
       <c r="B178" s="13"/>
       <c r="C178" s="52"/>
@@ -30016,7 +30031,7 @@
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="12"/>
       <c r="B179" s="13"/>
       <c r="C179" s="52"/>
@@ -30033,7 +30048,7 @@
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="12"/>
       <c r="B180" s="13"/>
       <c r="C180" s="52"/>
@@ -30050,7 +30065,7 @@
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="12"/>
       <c r="B181" s="13"/>
       <c r="C181" s="52"/>
@@ -30067,7 +30082,7 @@
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="12"/>
       <c r="B182" s="13"/>
       <c r="C182" s="52"/>
@@ -30084,7 +30099,7 @@
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
       <c r="B183" s="13"/>
       <c r="C183" s="52"/>
@@ -30101,7 +30116,7 @@
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="12"/>
       <c r="B184" s="13"/>
       <c r="C184" s="52"/>
@@ -30118,7 +30133,7 @@
       <c r="N184" s="13"/>
       <c r="O184" s="13"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="12"/>
       <c r="B185" s="13"/>
       <c r="C185" s="52"/>
@@ -30135,7 +30150,7 @@
       <c r="N185" s="13"/>
       <c r="O185" s="13"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="12"/>
       <c r="B186" s="13"/>
       <c r="C186" s="52"/>
@@ -30152,7 +30167,7 @@
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="12"/>
       <c r="B187" s="13"/>
       <c r="C187" s="52"/>
@@ -30169,7 +30184,7 @@
       <c r="N187" s="13"/>
       <c r="O187" s="13"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="12"/>
       <c r="B188" s="13"/>
       <c r="C188" s="52"/>
@@ -30186,7 +30201,7 @@
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="12"/>
       <c r="B189" s="13"/>
       <c r="C189" s="52"/>
@@ -30203,7 +30218,7 @@
       <c r="N189" s="13"/>
       <c r="O189" s="13"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="12"/>
       <c r="B190" s="13"/>
       <c r="C190" s="52"/>
@@ -30220,7 +30235,7 @@
       <c r="N190" s="13"/>
       <c r="O190" s="13"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="12"/>
       <c r="B191" s="13"/>
       <c r="C191" s="52"/>
@@ -30237,7 +30252,7 @@
       <c r="N191" s="13"/>
       <c r="O191" s="13"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="12"/>
       <c r="B192" s="13"/>
       <c r="C192" s="52"/>
@@ -30254,7 +30269,7 @@
       <c r="N192" s="13"/>
       <c r="O192" s="13"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="12"/>
       <c r="B193" s="13"/>
       <c r="C193" s="52"/>
@@ -30271,7 +30286,7 @@
       <c r="N193" s="13"/>
       <c r="O193" s="13"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="12"/>
       <c r="B194" s="13"/>
       <c r="C194" s="52"/>
@@ -30288,7 +30303,7 @@
       <c r="N194" s="13"/>
       <c r="O194" s="13"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="12"/>
       <c r="B195" s="13"/>
       <c r="C195" s="52"/>
@@ -30305,7 +30320,7 @@
       <c r="N195" s="13"/>
       <c r="O195" s="13"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="12"/>
       <c r="B196" s="13"/>
       <c r="C196" s="52"/>
@@ -30322,7 +30337,7 @@
       <c r="N196" s="13"/>
       <c r="O196" s="13"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="12"/>
       <c r="B197" s="13"/>
       <c r="C197" s="52"/>
@@ -30339,7 +30354,7 @@
       <c r="N197" s="13"/>
       <c r="O197" s="13"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="12"/>
       <c r="B198" s="13"/>
       <c r="C198" s="52"/>
@@ -30356,7 +30371,7 @@
       <c r="N198" s="13"/>
       <c r="O198" s="13"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="12"/>
       <c r="B199" s="13"/>
       <c r="C199" s="52"/>
@@ -30373,7 +30388,7 @@
       <c r="N199" s="13"/>
       <c r="O199" s="13"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="12"/>
       <c r="B200" s="13"/>
       <c r="C200" s="52"/>
@@ -30390,7 +30405,7 @@
       <c r="N200" s="13"/>
       <c r="O200" s="13"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="12"/>
       <c r="B201" s="13"/>
       <c r="C201" s="52"/>
@@ -30407,7 +30422,7 @@
       <c r="N201" s="13"/>
       <c r="O201" s="13"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="12"/>
       <c r="B202" s="13"/>
       <c r="C202" s="52"/>
@@ -30424,7 +30439,7 @@
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="12"/>
       <c r="B203" s="13"/>
       <c r="C203" s="52"/>
@@ -30441,7 +30456,7 @@
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="12"/>
       <c r="B204" s="13"/>
       <c r="C204" s="52"/>
@@ -30458,7 +30473,7 @@
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="12"/>
       <c r="B205" s="13"/>
       <c r="C205" s="52"/>
@@ -30475,7 +30490,7 @@
       <c r="N205" s="13"/>
       <c r="O205" s="13"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="12"/>
       <c r="B206" s="13"/>
       <c r="C206" s="52"/>
@@ -30492,7 +30507,7 @@
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="12"/>
       <c r="B207" s="13"/>
       <c r="C207" s="52"/>
@@ -30509,7 +30524,7 @@
       <c r="N207" s="13"/>
       <c r="O207" s="13"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="12"/>
       <c r="B208" s="13"/>
       <c r="C208" s="52"/>
@@ -30526,7 +30541,7 @@
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="12"/>
       <c r="B209" s="13"/>
       <c r="C209" s="52"/>
@@ -30543,7 +30558,7 @@
       <c r="N209" s="13"/>
       <c r="O209" s="13"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="12"/>
       <c r="B210" s="13"/>
       <c r="C210" s="52"/>
@@ -30560,7 +30575,7 @@
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="12"/>
       <c r="B211" s="13"/>
       <c r="C211" s="52"/>
@@ -30577,7 +30592,7 @@
       <c r="N211" s="13"/>
       <c r="O211" s="13"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="12"/>
       <c r="B212" s="13"/>
       <c r="C212" s="52"/>
@@ -30594,7 +30609,7 @@
       <c r="N212" s="13"/>
       <c r="O212" s="13"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="12"/>
       <c r="B213" s="13"/>
       <c r="C213" s="52"/>
@@ -30611,7 +30626,7 @@
       <c r="N213" s="13"/>
       <c r="O213" s="13"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="12"/>
       <c r="B214" s="13"/>
       <c r="C214" s="52"/>
@@ -30628,7 +30643,7 @@
       <c r="N214" s="13"/>
       <c r="O214" s="13"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="12"/>
       <c r="B215" s="13"/>
       <c r="C215" s="52"/>
@@ -30645,7 +30660,7 @@
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="12"/>
       <c r="B216" s="13"/>
       <c r="C216" s="52"/>
@@ -30662,7 +30677,7 @@
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="12"/>
       <c r="B217" s="13"/>
       <c r="C217" s="52"/>
@@ -30679,7 +30694,7 @@
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="12"/>
       <c r="B218" s="13"/>
       <c r="C218" s="52"/>
@@ -30696,7 +30711,7 @@
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="12"/>
       <c r="B219" s="13"/>
       <c r="C219" s="52"/>
@@ -30713,7 +30728,7 @@
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="12"/>
       <c r="B220" s="13"/>
       <c r="C220" s="52"/>
@@ -30730,7 +30745,7 @@
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="12"/>
       <c r="B221" s="13"/>
       <c r="C221" s="52"/>
@@ -30747,7 +30762,7 @@
       <c r="N221" s="13"/>
       <c r="O221" s="13"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="12"/>
       <c r="B222" s="13"/>
       <c r="C222" s="52"/>
@@ -30764,7 +30779,7 @@
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="12"/>
       <c r="B223" s="13"/>
       <c r="C223" s="52"/>
@@ -30781,7 +30796,7 @@
       <c r="N223" s="13"/>
       <c r="O223" s="13"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="12"/>
       <c r="B224" s="13"/>
       <c r="C224" s="52"/>
@@ -30798,7 +30813,7 @@
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="12"/>
       <c r="B225" s="13"/>
       <c r="C225" s="52"/>
@@ -30815,7 +30830,7 @@
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="12"/>
       <c r="B226" s="13"/>
       <c r="C226" s="52"/>
@@ -30832,7 +30847,7 @@
       <c r="N226" s="13"/>
       <c r="O226" s="13"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="12"/>
       <c r="B227" s="13"/>
       <c r="C227" s="52"/>
@@ -30849,7 +30864,7 @@
       <c r="N227" s="13"/>
       <c r="O227" s="13"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="12"/>
       <c r="B228" s="13"/>
       <c r="C228" s="52"/>
@@ -30866,7 +30881,7 @@
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="12"/>
       <c r="B229" s="13"/>
       <c r="C229" s="52"/>
@@ -30883,7 +30898,7 @@
       <c r="N229" s="13"/>
       <c r="O229" s="13"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="12"/>
       <c r="B230" s="13"/>
       <c r="C230" s="52"/>
@@ -30900,7 +30915,7 @@
       <c r="N230" s="13"/>
       <c r="O230" s="13"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="12"/>
       <c r="B231" s="13"/>
       <c r="C231" s="52"/>
@@ -30917,7 +30932,7 @@
       <c r="N231" s="13"/>
       <c r="O231" s="13"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="12"/>
       <c r="B232" s="13"/>
       <c r="C232" s="52"/>
@@ -30934,7 +30949,7 @@
       <c r="N232" s="13"/>
       <c r="O232" s="13"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="12"/>
       <c r="B233" s="13"/>
       <c r="C233" s="52"/>
@@ -30951,7 +30966,7 @@
       <c r="N233" s="13"/>
       <c r="O233" s="13"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="12"/>
       <c r="B234" s="13"/>
       <c r="C234" s="52"/>
@@ -30968,7 +30983,7 @@
       <c r="N234" s="13"/>
       <c r="O234" s="13"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="12"/>
       <c r="B235" s="13"/>
       <c r="C235" s="52"/>
@@ -30985,7 +31000,7 @@
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="12"/>
       <c r="B236" s="13"/>
       <c r="C236" s="52"/>
@@ -31002,7 +31017,7 @@
       <c r="N236" s="13"/>
       <c r="O236" s="13"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="12"/>
       <c r="B237" s="13"/>
       <c r="C237" s="52"/>
@@ -31019,7 +31034,7 @@
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="12"/>
       <c r="B238" s="13"/>
       <c r="C238" s="52"/>
@@ -31036,7 +31051,7 @@
       <c r="N238" s="13"/>
       <c r="O238" s="13"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="12"/>
       <c r="B239" s="13"/>
       <c r="C239" s="52"/>
@@ -31053,7 +31068,7 @@
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="12"/>
       <c r="B240" s="13"/>
       <c r="C240" s="52"/>
@@ -31070,7 +31085,7 @@
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="12"/>
       <c r="B241" s="13"/>
       <c r="C241" s="52"/>
@@ -31087,7 +31102,7 @@
       <c r="N241" s="13"/>
       <c r="O241" s="13"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="12"/>
       <c r="B242" s="13"/>
       <c r="C242" s="52"/>
@@ -31104,7 +31119,7 @@
       <c r="N242" s="13"/>
       <c r="O242" s="13"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="12"/>
       <c r="B243" s="13"/>
       <c r="C243" s="52"/>
@@ -31121,7 +31136,7 @@
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="12"/>
       <c r="B244" s="13"/>
       <c r="C244" s="52"/>
@@ -31138,7 +31153,7 @@
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="12"/>
       <c r="B245" s="13"/>
       <c r="C245" s="52"/>
@@ -31155,7 +31170,7 @@
       <c r="N245" s="13"/>
       <c r="O245" s="13"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="12"/>
       <c r="B246" s="13"/>
       <c r="C246" s="52"/>
@@ -31172,7 +31187,7 @@
       <c r="N246" s="13"/>
       <c r="O246" s="13"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="12"/>
       <c r="B247" s="13"/>
       <c r="C247" s="52"/>
@@ -31189,7 +31204,7 @@
       <c r="N247" s="13"/>
       <c r="O247" s="13"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="12"/>
       <c r="B248" s="13"/>
       <c r="C248" s="52"/>
@@ -31206,7 +31221,7 @@
       <c r="N248" s="13"/>
       <c r="O248" s="13"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="12"/>
       <c r="B249" s="13"/>
       <c r="C249" s="52"/>
@@ -31223,7 +31238,7 @@
       <c r="N249" s="13"/>
       <c r="O249" s="13"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="12"/>
       <c r="B250" s="13"/>
       <c r="C250" s="52"/>
@@ -31240,7 +31255,7 @@
       <c r="N250" s="13"/>
       <c r="O250" s="13"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="12"/>
       <c r="B251" s="13"/>
       <c r="C251" s="52"/>
@@ -31257,7 +31272,7 @@
       <c r="N251" s="13"/>
       <c r="O251" s="13"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="12"/>
       <c r="B252" s="13"/>
       <c r="C252" s="52"/>
@@ -31274,7 +31289,7 @@
       <c r="N252" s="13"/>
       <c r="O252" s="13"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="12"/>
       <c r="B253" s="13"/>
       <c r="C253" s="52"/>
@@ -31291,7 +31306,7 @@
       <c r="N253" s="13"/>
       <c r="O253" s="13"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="12"/>
       <c r="B254" s="13"/>
       <c r="C254" s="52"/>
@@ -31308,7 +31323,7 @@
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="12"/>
       <c r="B255" s="13"/>
       <c r="C255" s="52"/>
@@ -31325,7 +31340,7 @@
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="12"/>
       <c r="B256" s="13"/>
       <c r="C256" s="52"/>
@@ -31342,7 +31357,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="12"/>
       <c r="B257" s="13"/>
       <c r="C257" s="52"/>
@@ -31359,7 +31374,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="12"/>
       <c r="B258" s="13"/>
       <c r="C258" s="52"/>
@@ -31376,7 +31391,7 @@
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="12"/>
       <c r="B259" s="13"/>
       <c r="C259" s="52"/>
@@ -31393,7 +31408,7 @@
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="12"/>
       <c r="B260" s="13"/>
       <c r="C260" s="52"/>
@@ -31410,7 +31425,7 @@
       <c r="N260" s="13"/>
       <c r="O260" s="13"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="12"/>
       <c r="B261" s="13"/>
       <c r="C261" s="52"/>
@@ -31427,7 +31442,7 @@
       <c r="N261" s="13"/>
       <c r="O261" s="13"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="12"/>
       <c r="B262" s="13"/>
       <c r="C262" s="52"/>
@@ -31444,7 +31459,7 @@
       <c r="N262" s="13"/>
       <c r="O262" s="13"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="12"/>
       <c r="B263" s="13"/>
       <c r="C263" s="52"/>
@@ -31461,7 +31476,7 @@
       <c r="N263" s="13"/>
       <c r="O263" s="13"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="12"/>
       <c r="B264" s="13"/>
       <c r="C264" s="52"/>
@@ -31478,7 +31493,7 @@
       <c r="N264" s="13"/>
       <c r="O264" s="13"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="12"/>
       <c r="B265" s="13"/>
       <c r="C265" s="52"/>
@@ -31495,7 +31510,7 @@
       <c r="N265" s="13"/>
       <c r="O265" s="13"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="12"/>
       <c r="B266" s="13"/>
       <c r="C266" s="52"/>
@@ -31512,7 +31527,7 @@
       <c r="N266" s="13"/>
       <c r="O266" s="13"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="12"/>
       <c r="B267" s="13"/>
       <c r="C267" s="52"/>
@@ -31529,7 +31544,7 @@
       <c r="N267" s="13"/>
       <c r="O267" s="13"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="12"/>
       <c r="B268" s="13"/>
       <c r="C268" s="52"/>
@@ -31546,7 +31561,7 @@
       <c r="N268" s="13"/>
       <c r="O268" s="13"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="12"/>
       <c r="B269" s="13"/>
       <c r="C269" s="52"/>
@@ -31563,7 +31578,7 @@
       <c r="N269" s="13"/>
       <c r="O269" s="13"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="12"/>
       <c r="B270" s="13"/>
       <c r="C270" s="52"/>
@@ -31580,7 +31595,7 @@
       <c r="N270" s="13"/>
       <c r="O270" s="13"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="12"/>
       <c r="B271" s="13"/>
       <c r="C271" s="52"/>
@@ -31597,7 +31612,7 @@
       <c r="N271" s="13"/>
       <c r="O271" s="13"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="12"/>
       <c r="B272" s="13"/>
       <c r="C272" s="52"/>
@@ -31614,7 +31629,7 @@
       <c r="N272" s="13"/>
       <c r="O272" s="13"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="12"/>
       <c r="B273" s="13"/>
       <c r="C273" s="52"/>
@@ -31631,7 +31646,7 @@
       <c r="N273" s="13"/>
       <c r="O273" s="13"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="12"/>
       <c r="B274" s="13"/>
       <c r="C274" s="52"/>
@@ -31648,7 +31663,7 @@
       <c r="N274" s="13"/>
       <c r="O274" s="13"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="12"/>
       <c r="B275" s="13"/>
       <c r="C275" s="52"/>
@@ -31665,7 +31680,7 @@
       <c r="N275" s="13"/>
       <c r="O275" s="13"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="12"/>
       <c r="B276" s="13"/>
       <c r="C276" s="52"/>
@@ -31682,7 +31697,7 @@
       <c r="N276" s="13"/>
       <c r="O276" s="13"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="12"/>
       <c r="B277" s="13"/>
       <c r="C277" s="52"/>
@@ -31699,7 +31714,7 @@
       <c r="N277" s="13"/>
       <c r="O277" s="13"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="12"/>
       <c r="B278" s="13"/>
       <c r="C278" s="52"/>
@@ -31716,7 +31731,7 @@
       <c r="N278" s="13"/>
       <c r="O278" s="13"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="12"/>
       <c r="B279" s="13"/>
       <c r="C279" s="52"/>
@@ -31733,7 +31748,7 @@
       <c r="N279" s="13"/>
       <c r="O279" s="13"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="12"/>
       <c r="B280" s="13"/>
       <c r="C280" s="52"/>
@@ -31750,7 +31765,7 @@
       <c r="N280" s="13"/>
       <c r="O280" s="13"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="12"/>
       <c r="B281" s="13"/>
       <c r="C281" s="52"/>
@@ -31767,7 +31782,7 @@
       <c r="N281" s="13"/>
       <c r="O281" s="13"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="12"/>
       <c r="B282" s="13"/>
       <c r="C282" s="52"/>
@@ -31784,7 +31799,7 @@
       <c r="N282" s="13"/>
       <c r="O282" s="13"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="12"/>
       <c r="B283" s="13"/>
       <c r="C283" s="52"/>
@@ -31801,7 +31816,7 @@
       <c r="N283" s="13"/>
       <c r="O283" s="13"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="12"/>
       <c r="B284" s="13"/>
       <c r="C284" s="52"/>
@@ -31818,7 +31833,7 @@
       <c r="N284" s="13"/>
       <c r="O284" s="13"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="12"/>
       <c r="B285" s="13"/>
       <c r="C285" s="52"/>
@@ -31835,7 +31850,7 @@
       <c r="N285" s="13"/>
       <c r="O285" s="13"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="12"/>
       <c r="B286" s="13"/>
       <c r="C286" s="52"/>
@@ -31852,7 +31867,7 @@
       <c r="N286" s="13"/>
       <c r="O286" s="13"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="12"/>
       <c r="B287" s="13"/>
       <c r="C287" s="52"/>
@@ -31869,7 +31884,7 @@
       <c r="N287" s="13"/>
       <c r="O287" s="13"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="12"/>
       <c r="B288" s="13"/>
       <c r="C288" s="52"/>
@@ -31886,7 +31901,7 @@
       <c r="N288" s="13"/>
       <c r="O288" s="13"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="12"/>
       <c r="B289" s="13"/>
       <c r="C289" s="52"/>
@@ -31903,7 +31918,7 @@
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="12"/>
       <c r="B290" s="13"/>
       <c r="C290" s="52"/>
@@ -31920,7 +31935,7 @@
       <c r="N290" s="13"/>
       <c r="O290" s="13"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="12"/>
       <c r="B291" s="13"/>
       <c r="C291" s="52"/>
@@ -31937,7 +31952,7 @@
       <c r="N291" s="13"/>
       <c r="O291" s="13"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="12"/>
       <c r="B292" s="13"/>
       <c r="C292" s="52"/>
@@ -31954,7 +31969,7 @@
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="12"/>
       <c r="B293" s="13"/>
       <c r="C293" s="52"/>
@@ -31971,7 +31986,7 @@
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="12"/>
       <c r="B294" s="13"/>
       <c r="C294" s="52"/>
@@ -31988,7 +32003,7 @@
       <c r="N294" s="13"/>
       <c r="O294" s="13"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="12"/>
       <c r="B295" s="13"/>
       <c r="C295" s="52"/>
@@ -32005,7 +32020,7 @@
       <c r="N295" s="13"/>
       <c r="O295" s="13"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="12"/>
       <c r="B296" s="13"/>
       <c r="C296" s="52"/>
@@ -32022,7 +32037,7 @@
       <c r="N296" s="13"/>
       <c r="O296" s="13"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="12"/>
       <c r="B297" s="13"/>
       <c r="C297" s="52"/>
@@ -32039,7 +32054,7 @@
       <c r="N297" s="13"/>
       <c r="O297" s="13"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="12"/>
       <c r="B298" s="13"/>
       <c r="C298" s="52"/>
@@ -32056,7 +32071,7 @@
       <c r="N298" s="13"/>
       <c r="O298" s="13"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="12"/>
       <c r="B299" s="13"/>
       <c r="C299" s="52"/>
@@ -32073,7 +32088,7 @@
       <c r="N299" s="13"/>
       <c r="O299" s="13"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="12"/>
       <c r="B300" s="13"/>
       <c r="C300" s="52"/>
@@ -32090,7 +32105,7 @@
       <c r="N300" s="13"/>
       <c r="O300" s="13"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="12"/>
       <c r="B301" s="13"/>
       <c r="C301" s="52"/>
@@ -32107,7 +32122,7 @@
       <c r="N301" s="13"/>
       <c r="O301" s="13"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="12"/>
       <c r="B302" s="13"/>
       <c r="C302" s="52"/>
@@ -32124,7 +32139,7 @@
       <c r="N302" s="13"/>
       <c r="O302" s="13"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="12"/>
       <c r="B303" s="13"/>
       <c r="C303" s="52"/>
@@ -32141,7 +32156,7 @@
       <c r="N303" s="13"/>
       <c r="O303" s="13"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="12"/>
       <c r="B304" s="13"/>
       <c r="C304" s="52"/>
@@ -32158,7 +32173,7 @@
       <c r="N304" s="13"/>
       <c r="O304" s="13"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="12"/>
       <c r="B305" s="13"/>
       <c r="C305" s="52"/>
@@ -32175,7 +32190,7 @@
       <c r="N305" s="13"/>
       <c r="O305" s="13"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="12"/>
       <c r="B306" s="13"/>
       <c r="C306" s="52"/>
@@ -32192,7 +32207,7 @@
       <c r="N306" s="13"/>
       <c r="O306" s="13"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="12"/>
       <c r="B307" s="13"/>
       <c r="C307" s="52"/>
@@ -32209,7 +32224,7 @@
       <c r="N307" s="13"/>
       <c r="O307" s="13"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="12"/>
       <c r="B308" s="13"/>
       <c r="C308" s="52"/>
@@ -32226,7 +32241,7 @@
       <c r="N308" s="13"/>
       <c r="O308" s="13"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" s="12"/>
       <c r="B309" s="13"/>
       <c r="C309" s="52"/>
@@ -32243,7 +32258,7 @@
       <c r="N309" s="13"/>
       <c r="O309" s="13"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" s="12"/>
       <c r="B310" s="13"/>
       <c r="C310" s="52"/>
@@ -32260,7 +32275,7 @@
       <c r="N310" s="13"/>
       <c r="O310" s="13"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" s="12"/>
       <c r="B311" s="13"/>
       <c r="C311" s="52"/>
@@ -32277,7 +32292,7 @@
       <c r="N311" s="13"/>
       <c r="O311" s="13"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="12"/>
       <c r="B312" s="13"/>
       <c r="C312" s="52"/>
@@ -32294,7 +32309,7 @@
       <c r="N312" s="13"/>
       <c r="O312" s="13"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" s="12"/>
       <c r="B313" s="13"/>
       <c r="C313" s="52"/>
@@ -32311,7 +32326,7 @@
       <c r="N313" s="13"/>
       <c r="O313" s="13"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" s="12"/>
       <c r="B314" s="13"/>
       <c r="C314" s="52"/>
@@ -32328,7 +32343,7 @@
       <c r="N314" s="13"/>
       <c r="O314" s="13"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" s="12"/>
       <c r="B315" s="13"/>
       <c r="C315" s="52"/>
@@ -32345,7 +32360,7 @@
       <c r="N315" s="13"/>
       <c r="O315" s="13"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" s="12"/>
       <c r="B316" s="13"/>
       <c r="C316" s="52"/>
@@ -32362,7 +32377,7 @@
       <c r="N316" s="13"/>
       <c r="O316" s="13"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" s="12"/>
       <c r="B317" s="13"/>
       <c r="C317" s="52"/>
@@ -32379,7 +32394,7 @@
       <c r="N317" s="13"/>
       <c r="O317" s="13"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" s="12"/>
       <c r="B318" s="13"/>
       <c r="C318" s="52"/>
@@ -32396,7 +32411,7 @@
       <c r="N318" s="13"/>
       <c r="O318" s="13"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" s="12"/>
       <c r="B319" s="13"/>
       <c r="C319" s="52"/>
@@ -32413,7 +32428,7 @@
       <c r="N319" s="13"/>
       <c r="O319" s="13"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="12"/>
       <c r="B320" s="13"/>
       <c r="C320" s="52"/>
@@ -32430,7 +32445,7 @@
       <c r="N320" s="13"/>
       <c r="O320" s="13"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" s="12"/>
       <c r="B321" s="13"/>
       <c r="C321" s="52"/>
@@ -32447,7 +32462,7 @@
       <c r="N321" s="13"/>
       <c r="O321" s="13"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" s="12"/>
       <c r="B322" s="13"/>
       <c r="C322" s="52"/>
@@ -32464,7 +32479,7 @@
       <c r="N322" s="13"/>
       <c r="O322" s="13"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" s="12"/>
       <c r="B323" s="13"/>
       <c r="C323" s="52"/>
@@ -32481,7 +32496,7 @@
       <c r="N323" s="13"/>
       <c r="O323" s="13"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" s="12"/>
       <c r="B324" s="13"/>
       <c r="C324" s="52"/>
@@ -32498,7 +32513,7 @@
       <c r="N324" s="13"/>
       <c r="O324" s="13"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" s="12"/>
       <c r="B325" s="13"/>
       <c r="C325" s="52"/>
@@ -32515,7 +32530,7 @@
       <c r="N325" s="13"/>
       <c r="O325" s="13"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" s="12"/>
       <c r="B326" s="13"/>
       <c r="C326" s="52"/>
@@ -32532,7 +32547,7 @@
       <c r="N326" s="13"/>
       <c r="O326" s="13"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" s="12"/>
       <c r="B327" s="13"/>
       <c r="C327" s="52"/>
@@ -32549,7 +32564,7 @@
       <c r="N327" s="13"/>
       <c r="O327" s="13"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" s="12"/>
       <c r="B328" s="13"/>
       <c r="C328" s="52"/>
@@ -32566,7 +32581,7 @@
       <c r="N328" s="13"/>
       <c r="O328" s="13"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" s="12"/>
       <c r="B329" s="13"/>
       <c r="C329" s="52"/>
@@ -32583,7 +32598,7 @@
       <c r="N329" s="13"/>
       <c r="O329" s="13"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" s="12"/>
       <c r="B330" s="13"/>
       <c r="C330" s="52"/>
@@ -32600,7 +32615,7 @@
       <c r="N330" s="13"/>
       <c r="O330" s="13"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" s="12"/>
       <c r="B331" s="13"/>
       <c r="C331" s="52"/>
@@ -32617,7 +32632,7 @@
       <c r="N331" s="13"/>
       <c r="O331" s="13"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" s="12"/>
       <c r="B332" s="13"/>
       <c r="C332" s="52"/>
@@ -32634,7 +32649,7 @@
       <c r="N332" s="13"/>
       <c r="O332" s="13"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" s="12"/>
       <c r="B333" s="13"/>
       <c r="C333" s="52"/>
@@ -32651,7 +32666,7 @@
       <c r="N333" s="13"/>
       <c r="O333" s="13"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" s="12"/>
       <c r="B334" s="13"/>
       <c r="C334" s="52"/>
@@ -32668,7 +32683,7 @@
       <c r="N334" s="13"/>
       <c r="O334" s="13"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" s="12"/>
       <c r="B335" s="13"/>
       <c r="C335" s="52"/>
@@ -32685,7 +32700,7 @@
       <c r="N335" s="13"/>
       <c r="O335" s="13"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" s="12"/>
       <c r="B336" s="13"/>
       <c r="C336" s="52"/>
@@ -32702,7 +32717,7 @@
       <c r="N336" s="13"/>
       <c r="O336" s="13"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="12"/>
       <c r="B337" s="13"/>
       <c r="C337" s="52"/>
@@ -32719,7 +32734,7 @@
       <c r="N337" s="13"/>
       <c r="O337" s="13"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" s="12"/>
       <c r="B338" s="13"/>
       <c r="C338" s="52"/>
@@ -32736,7 +32751,7 @@
       <c r="N338" s="13"/>
       <c r="O338" s="13"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="12"/>
       <c r="B339" s="13"/>
       <c r="C339" s="52"/>
@@ -32753,7 +32768,7 @@
       <c r="N339" s="13"/>
       <c r="O339" s="13"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" s="12"/>
       <c r="B340" s="13"/>
       <c r="C340" s="52"/>
@@ -32770,7 +32785,7 @@
       <c r="N340" s="13"/>
       <c r="O340" s="13"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" s="12"/>
       <c r="B341" s="13"/>
       <c r="C341" s="52"/>
@@ -32787,7 +32802,7 @@
       <c r="N341" s="13"/>
       <c r="O341" s="13"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="12"/>
       <c r="B342" s="13"/>
       <c r="C342" s="52"/>
@@ -32804,7 +32819,7 @@
       <c r="N342" s="13"/>
       <c r="O342" s="13"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="12"/>
       <c r="B343" s="13"/>
       <c r="C343" s="52"/>
@@ -32821,7 +32836,7 @@
       <c r="N343" s="13"/>
       <c r="O343" s="13"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" s="12"/>
       <c r="B344" s="13"/>
       <c r="C344" s="52"/>
@@ -32838,7 +32853,7 @@
       <c r="N344" s="13"/>
       <c r="O344" s="13"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="12"/>
       <c r="B345" s="13"/>
       <c r="C345" s="52"/>
@@ -32855,7 +32870,7 @@
       <c r="N345" s="13"/>
       <c r="O345" s="13"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="12"/>
       <c r="B346" s="13"/>
       <c r="C346" s="52"/>
@@ -32872,7 +32887,7 @@
       <c r="N346" s="13"/>
       <c r="O346" s="13"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="12"/>
       <c r="B347" s="13"/>
       <c r="C347" s="52"/>
@@ -32889,7 +32904,7 @@
       <c r="N347" s="13"/>
       <c r="O347" s="13"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="12"/>
       <c r="B348" s="13"/>
       <c r="C348" s="52"/>
@@ -32906,7 +32921,7 @@
       <c r="N348" s="13"/>
       <c r="O348" s="13"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="12"/>
       <c r="B349" s="13"/>
       <c r="C349" s="52"/>
@@ -32923,7 +32938,7 @@
       <c r="N349" s="13"/>
       <c r="O349" s="13"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="12"/>
       <c r="B350" s="13"/>
       <c r="D350" s="12"/>
@@ -32941,11 +32956,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A119:O119"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A116:O116"/>
-    <mergeCell ref="A98:O98"/>
-    <mergeCell ref="A99:O99"/>
     <mergeCell ref="A80:O80"/>
     <mergeCell ref="A65:O65"/>
     <mergeCell ref="A81:O81"/>
@@ -32955,6 +32965,11 @@
     <mergeCell ref="A20:O20"/>
     <mergeCell ref="A48:O48"/>
     <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="A99:O99"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
@@ -32978,6 +32993,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Word document" ma:contentTypeID="0x010100852E11B2A94E4937B655CB4FCD918453006DFD5C59A7CB45AAB5046F3899BB7DEC00F397826DF95DEB4B8DB89BEACF2240F1" ma:contentTypeVersion="79" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2efa76ee5d5cd602cc18ca32df57176e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9394a98c30c487d0596bd1768260a67a" ns2:_="">
     <xsd:import namespace="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
@@ -33197,68 +33273,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33274,22 +33307,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>